--- a/Nintendo.xlsx
+++ b/Nintendo.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gabri\Documents\Insper\Segundo Semestre\Ciencia dos Dados\CieDados-P2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23C3E2CF-47B7-4E9B-9F81-6C87373219AA}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C60B1D9F-BB4F-4E26-BCEA-8E1AFF1CB8B2}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,15 @@
     <sheet name="Treinamento" sheetId="1" r:id="rId1"/>
     <sheet name="Teste" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -1481,13 +1489,16 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hiperlink" xfId="1" builtinId="8"/>
@@ -1829,8 +1840,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B301"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView tabSelected="1" topLeftCell="A292" zoomScale="49" workbookViewId="0">
+      <selection activeCell="H145" sqref="H145"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1850,1500 +1861,2400 @@
       <c r="A2" t="s">
         <v>1</v>
       </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>2</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>3</v>
       </c>
+      <c r="B4">
+        <v>2</v>
+      </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>4</v>
       </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>5</v>
       </c>
+      <c r="B6">
+        <v>2</v>
+      </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>6</v>
       </c>
+      <c r="B7">
+        <v>2</v>
+      </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>7</v>
       </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>8</v>
       </c>
+      <c r="B9">
+        <v>1</v>
+      </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>9</v>
       </c>
+      <c r="B10">
+        <v>2</v>
+      </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>10</v>
       </c>
+      <c r="B11">
+        <v>2</v>
+      </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>11</v>
       </c>
+      <c r="B12">
+        <v>1</v>
+      </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>12</v>
       </c>
+      <c r="B13">
+        <v>2</v>
+      </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>13</v>
       </c>
+      <c r="B14">
+        <v>1</v>
+      </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>14</v>
       </c>
+      <c r="B15">
+        <v>2</v>
+      </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B23">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B24">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B27">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B28">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B29">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B30">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B31">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B33">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B34">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B35">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B37">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B40">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B43">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B44">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B45">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B46">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B47">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B48">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B49">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B50">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B51">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B52">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B53">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B54">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B56">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B57">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B58">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B59">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B60">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B61">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B62">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B64">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B65">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B66">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B68">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B69">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B70">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B71">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B72">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B73">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B74">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B75">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B76">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B77">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B78">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B79">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B80">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B81">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B82">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B83">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B84">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B85">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B86">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B87">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="89" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B88">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B89">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="91" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B90">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="92" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B91">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="93" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B92">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="94" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B93">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="95" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B94">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="96" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B95">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="98" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B97">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="99" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B98">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="100" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B99">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="101" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B100">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="102" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B101">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="103" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B102">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="104" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B103">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="105" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B104">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="106" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B105">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="107" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B106">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="108" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B107">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="109" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B108">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="110" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A110" t="s">
+      <c r="B109">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A110" s="4" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="111" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B110">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="112" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B111">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="113" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B112">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="114" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B113">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="115" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B114">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="116" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B115">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="117" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B116">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="118" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B117">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="119" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B118">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="120" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B119">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="121" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B120">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="122" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B121">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="123" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B122">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="124" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B123">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="125" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B124">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="126" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B125">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="127" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B126">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="128" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B127">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="129" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B128">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="130" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B129">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="131" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B130">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="132" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B131">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="133" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B132">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="134" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B133">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="135" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B134">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="136" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B135">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="137" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B136">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="138" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B137">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="139" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B138">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row r="140" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B139">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="141" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B140">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="142" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B141">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="143" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B142">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="144" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B143">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="145" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B144">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="146" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B145">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="147" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B146">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="148" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B147">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="149" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B148">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="150" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B149">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="151" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B150">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="152" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B151">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="153" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B152">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="154" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B153">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
         <v>136</v>
       </c>
-    </row>
-    <row r="155" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B154">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="156" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B155">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="156" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="157" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B156">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="158" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B157">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="158" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="159" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B158">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="159" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="160" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B159">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="160" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
         <v>139</v>
       </c>
-    </row>
-    <row r="161" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B160">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="161" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
         <v>140</v>
       </c>
-    </row>
-    <row r="162" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B161">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="162" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="163" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B162">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="163" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
         <v>142</v>
       </c>
-    </row>
-    <row r="164" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B163">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="164" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
         <v>143</v>
       </c>
-    </row>
-    <row r="165" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B164">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="165" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row r="166" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B165">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="166" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="167" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B166">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="167" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
         <v>145</v>
       </c>
-    </row>
-    <row r="168" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B167">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="168" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
         <v>146</v>
       </c>
-    </row>
-    <row r="169" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B168">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="169" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="170" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B169">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="170" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
         <v>147</v>
       </c>
-    </row>
-    <row r="171" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B170">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="171" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
         <v>148</v>
       </c>
-    </row>
-    <row r="172" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B171">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="172" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
         <v>149</v>
       </c>
-    </row>
-    <row r="173" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B172">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="173" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
         <v>150</v>
       </c>
-    </row>
-    <row r="174" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B173">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="174" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
         <v>151</v>
       </c>
-    </row>
-    <row r="175" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B174">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="175" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A175" t="s">
         <v>152</v>
       </c>
-    </row>
-    <row r="176" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B175">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="176" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A176" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="177" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B176">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="177" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A177" t="s">
         <v>153</v>
       </c>
-    </row>
-    <row r="178" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B177">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="178" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A178" t="s">
         <v>154</v>
       </c>
-    </row>
-    <row r="179" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B178">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="179" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A179" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="180" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B179">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="180" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A180" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="181" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B180">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="181" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A181" t="s">
         <v>156</v>
       </c>
-    </row>
-    <row r="182" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B181">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="182" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A182" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="183" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B182">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="183" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A183" t="s">
         <v>158</v>
       </c>
-    </row>
-    <row r="184" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B183">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="184" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A184" t="s">
         <v>159</v>
       </c>
-    </row>
-    <row r="185" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B184">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="185" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A185" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="186" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B185">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="186" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A186" t="s">
         <v>161</v>
       </c>
-    </row>
-    <row r="187" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B186">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="187" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A187" t="s">
         <v>162</v>
       </c>
-    </row>
-    <row r="188" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B187">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="188" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A188" t="s">
         <v>163</v>
       </c>
-    </row>
-    <row r="189" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B188">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="189" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A189" t="s">
         <v>164</v>
       </c>
-    </row>
-    <row r="190" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B189">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="190" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A190" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="191" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B190">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="191" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A191" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="192" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B191">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="192" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A192" t="s">
         <v>165</v>
       </c>
-    </row>
-    <row r="193" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B192">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="193" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A193" t="s">
         <v>166</v>
       </c>
-    </row>
-    <row r="194" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B193">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="194" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A194" t="s">
         <v>167</v>
       </c>
-    </row>
-    <row r="195" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B194">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="195" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A195" t="s">
         <v>168</v>
       </c>
-    </row>
-    <row r="196" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B195">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="196" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A196" t="s">
         <v>169</v>
       </c>
-    </row>
-    <row r="197" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B196">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="197" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A197" t="s">
         <v>170</v>
       </c>
-    </row>
-    <row r="198" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B197">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="198" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A198" t="s">
         <v>171</v>
       </c>
-    </row>
-    <row r="199" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B198">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="199" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A199" t="s">
         <v>172</v>
       </c>
-    </row>
-    <row r="200" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B199">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="200" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A200" t="s">
         <v>173</v>
       </c>
-    </row>
-    <row r="201" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B200">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="201" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A201" t="s">
         <v>174</v>
       </c>
-    </row>
-    <row r="202" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B201">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="202" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A202" t="s">
         <v>175</v>
       </c>
-    </row>
-    <row r="203" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B202">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="203" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A203" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="204" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B203">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="204" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A204" t="s">
         <v>176</v>
       </c>
-    </row>
-    <row r="205" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B204">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="205" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A205" t="s">
         <v>177</v>
       </c>
-    </row>
-    <row r="206" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B205">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="206" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A206" t="s">
         <v>178</v>
       </c>
-    </row>
-    <row r="207" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B206">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="207" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A207" t="s">
         <v>179</v>
       </c>
-    </row>
-    <row r="208" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B207">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="208" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A208" t="s">
         <v>180</v>
       </c>
-    </row>
-    <row r="209" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B208">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="209" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A209" t="s">
         <v>181</v>
       </c>
-    </row>
-    <row r="210" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B209">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="210" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A210" t="s">
         <v>182</v>
       </c>
-    </row>
-    <row r="211" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B210">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="211" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A211" t="s">
         <v>183</v>
       </c>
-    </row>
-    <row r="212" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B211">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="212" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A212" t="s">
         <v>184</v>
       </c>
-    </row>
-    <row r="213" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B212">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="213" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A213" t="s">
         <v>185</v>
       </c>
-    </row>
-    <row r="214" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B213">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="214" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A214" t="s">
         <v>186</v>
       </c>
-    </row>
-    <row r="215" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B214">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="215" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A215" t="s">
         <v>187</v>
       </c>
-    </row>
-    <row r="216" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B215">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="216" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A216" t="s">
         <v>188</v>
       </c>
-    </row>
-    <row r="217" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B216">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="217" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A217" t="s">
         <v>189</v>
       </c>
-    </row>
-    <row r="218" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B217">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="218" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A218" t="s">
         <v>190</v>
       </c>
-    </row>
-    <row r="219" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B218">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="219" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A219" t="s">
         <v>191</v>
       </c>
-    </row>
-    <row r="220" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B219">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="220" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A220" t="s">
         <v>192</v>
       </c>
-    </row>
-    <row r="221" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B220">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="221" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A221" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="222" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B221">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="222" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A222" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="223" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B222">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="223" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A223" t="s">
         <v>147</v>
       </c>
-    </row>
-    <row r="224" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B223">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="224" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A224" t="s">
         <v>193</v>
       </c>
-    </row>
-    <row r="225" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B224">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="225" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A225" t="s">
         <v>194</v>
       </c>
-    </row>
-    <row r="226" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B225">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="226" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A226" t="s">
         <v>195</v>
       </c>
-    </row>
-    <row r="227" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B226">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="227" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A227" t="s">
         <v>196</v>
       </c>
-    </row>
-    <row r="228" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B227">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="228" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A228" t="s">
         <v>197</v>
       </c>
-    </row>
-    <row r="229" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B228">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="229" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A229" t="s">
         <v>198</v>
       </c>
-    </row>
-    <row r="230" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B229">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="230" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A230" t="s">
         <v>199</v>
       </c>
-    </row>
-    <row r="231" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B230">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="231" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A231" t="s">
         <v>200</v>
       </c>
-    </row>
-    <row r="232" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B231">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="232" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A232" t="s">
         <v>201</v>
       </c>
-    </row>
-    <row r="233" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B232">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="233" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A233" t="s">
         <v>202</v>
       </c>
-    </row>
-    <row r="234" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B233">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="234" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A234" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="235" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B234">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="235" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A235" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="236" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B235">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="236" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A236" t="s">
         <v>204</v>
       </c>
-    </row>
-    <row r="237" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B236">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="237" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A237" t="s">
         <v>205</v>
       </c>
-    </row>
-    <row r="238" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B237">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="238" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A238" t="s">
         <v>206</v>
       </c>
-    </row>
-    <row r="239" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B238">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="239" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A239" t="s">
         <v>207</v>
       </c>
-    </row>
-    <row r="240" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B239">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="240" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A240" t="s">
         <v>208</v>
       </c>
-    </row>
-    <row r="241" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B240">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="241" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A241" t="s">
         <v>209</v>
       </c>
-    </row>
-    <row r="242" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B241">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="242" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A242" t="s">
         <v>210</v>
       </c>
-    </row>
-    <row r="243" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B242">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="243" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A243" t="s">
         <v>211</v>
       </c>
-    </row>
-    <row r="244" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B243">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="244" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A244" t="s">
         <v>212</v>
       </c>
-    </row>
-    <row r="245" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B244">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="245" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A245" t="s">
         <v>213</v>
       </c>
-    </row>
-    <row r="246" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B245">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="246" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A246" t="s">
         <v>214</v>
       </c>
-    </row>
-    <row r="247" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B246">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="247" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A247" t="s">
         <v>215</v>
       </c>
-    </row>
-    <row r="248" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B247">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="248" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A248" t="s">
         <v>216</v>
       </c>
-    </row>
-    <row r="249" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B248">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="249" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A249" t="s">
         <v>217</v>
       </c>
-    </row>
-    <row r="250" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B249">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="250" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A250" t="s">
         <v>218</v>
       </c>
-    </row>
-    <row r="251" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B250">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="251" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A251" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="252" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B251">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="252" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A252" t="s">
         <v>219</v>
       </c>
-    </row>
-    <row r="253" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B252">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="253" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A253" t="s">
         <v>220</v>
       </c>
-    </row>
-    <row r="254" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B253">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="254" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A254" t="s">
         <v>221</v>
       </c>
-    </row>
-    <row r="255" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B254">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="255" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A255" t="s">
         <v>222</v>
       </c>
-    </row>
-    <row r="256" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B255">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="256" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A256" t="s">
         <v>223</v>
       </c>
-    </row>
-    <row r="257" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B256">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="257" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A257" t="s">
         <v>224</v>
       </c>
-    </row>
-    <row r="258" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B257">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="258" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A258" t="s">
         <v>225</v>
       </c>
-    </row>
-    <row r="259" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B258">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="259" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A259" t="s">
         <v>226</v>
       </c>
-    </row>
-    <row r="260" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B259">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="260" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A260" t="s">
         <v>227</v>
       </c>
-    </row>
-    <row r="261" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B260">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="261" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A261" t="s">
         <v>228</v>
       </c>
-    </row>
-    <row r="262" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B261">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="262" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A262" t="s">
         <v>229</v>
       </c>
-    </row>
-    <row r="263" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B262">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="263" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A263" t="s">
         <v>230</v>
       </c>
-    </row>
-    <row r="264" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B263">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="264" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A264" t="s">
         <v>231</v>
       </c>
-    </row>
-    <row r="265" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B264">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="265" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A265" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="266" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B265">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="266" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A266" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="267" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B266">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="267" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A267" t="s">
         <v>232</v>
       </c>
-    </row>
-    <row r="268" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B267">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="268" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A268" t="s">
         <v>233</v>
       </c>
-    </row>
-    <row r="269" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B268">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="269" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A269" t="s">
         <v>234</v>
       </c>
-    </row>
-    <row r="270" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B269">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="270" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A270" t="s">
         <v>235</v>
       </c>
-    </row>
-    <row r="271" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B270">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="271" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A271" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="272" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B271">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="272" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A272" t="s">
         <v>236</v>
       </c>
-    </row>
-    <row r="273" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B272">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="273" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A273" t="s">
         <v>237</v>
       </c>
-    </row>
-    <row r="274" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B273">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="274" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A274" t="s">
         <v>150</v>
       </c>
-    </row>
-    <row r="275" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B274">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="275" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A275" t="s">
         <v>238</v>
       </c>
-    </row>
-    <row r="276" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B275">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="276" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A276" t="s">
         <v>239</v>
       </c>
-    </row>
-    <row r="277" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B276">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="277" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A277" t="s">
         <v>240</v>
       </c>
-    </row>
-    <row r="278" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B277">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="278" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A278" t="s">
         <v>241</v>
       </c>
-    </row>
-    <row r="279" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B278">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="279" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A279" t="s">
         <v>242</v>
       </c>
-    </row>
-    <row r="280" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B279">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="280" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A280" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="281" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B280">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="281" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A281" t="s">
         <v>243</v>
       </c>
-    </row>
-    <row r="282" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B281">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="282" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A282" t="s">
         <v>244</v>
       </c>
-    </row>
-    <row r="283" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B282">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="283" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A283" t="s">
         <v>245</v>
       </c>
-    </row>
-    <row r="284" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B283">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="284" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A284" t="s">
         <v>246</v>
       </c>
-    </row>
-    <row r="285" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B284">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="285" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A285" t="s">
         <v>247</v>
       </c>
-    </row>
-    <row r="286" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B285">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="286" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A286" t="s">
         <v>248</v>
       </c>
-    </row>
-    <row r="287" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B286">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="287" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A287" t="s">
         <v>249</v>
       </c>
-    </row>
-    <row r="288" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B287">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="288" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A288" t="s">
         <v>250</v>
       </c>
-    </row>
-    <row r="289" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B288">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="289" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A289" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="290" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B289">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="290" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A290" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="291" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B290">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="291" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A291" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="292" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B291">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="292" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A292" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="293" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B292">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="293" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A293" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="294" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B293">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="294" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A294" t="s">
         <v>251</v>
       </c>
-    </row>
-    <row r="295" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B294">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="295" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A295" t="s">
         <v>217</v>
       </c>
-    </row>
-    <row r="296" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B295">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="296" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A296" t="s">
         <v>252</v>
       </c>
-    </row>
-    <row r="297" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B296">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="297" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A297" t="s">
         <v>253</v>
       </c>
-    </row>
-    <row r="298" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B297">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="298" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A298" t="s">
         <v>254</v>
       </c>
-    </row>
-    <row r="299" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B298">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="299" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A299" t="s">
         <v>255</v>
       </c>
-    </row>
-    <row r="300" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B299">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="300" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A300" t="s">
         <v>256</v>
       </c>
-    </row>
-    <row r="301" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B300">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="301" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A301" t="s">
         <v>257</v>
+      </c>
+      <c r="B301">
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/Nintendo.xlsx
+++ b/Nintendo.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gabri\Documents\Insper\Segundo Semestre\Ciencia dos Dados\CieDados-P2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C60B1D9F-BB4F-4E26-BCEA-8E1AFF1CB8B2}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{451381C0-E39E-4CF7-9810-E1ABC9EFF772}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Treinamento" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="503" uniqueCount="412">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="504" uniqueCount="412">
   <si>
     <t>Treinamento</t>
   </si>
@@ -1840,7 +1840,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B301"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A292" zoomScale="49" workbookViewId="0">
+    <sheetView zoomScale="49" workbookViewId="0">
       <selection activeCell="H145" sqref="H145"/>
     </sheetView>
   </sheetViews>
@@ -4265,568 +4265,873 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:A201"/>
+  <dimension ref="A1:B201"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A49" zoomScale="49" workbookViewId="0">
+      <selection activeCell="A101" sqref="A101"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="255.77734375" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>258</v>
       </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B1" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>259</v>
       </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>260</v>
       </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>261</v>
       </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>262</v>
       </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>263</v>
       </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>264</v>
       </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>265</v>
       </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>266</v>
       </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>267</v>
       </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>268</v>
       </c>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>269</v>
       </c>
-    </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>270</v>
       </c>
-    </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>205</v>
       </c>
-    </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>271</v>
       </c>
-    </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>272</v>
       </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>273</v>
       </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>274</v>
       </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>275</v>
       </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B20">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>276</v>
       </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>277</v>
       </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B22">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
         <v>278</v>
       </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>279</v>
       </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>280</v>
       </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>281</v>
       </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>282</v>
       </c>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>283</v>
       </c>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B30">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>284</v>
       </c>
-    </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B31">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B33">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B34">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>285</v>
       </c>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>286</v>
       </c>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B36">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>287</v>
       </c>
-    </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>288</v>
       </c>
-    </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>289</v>
       </c>
-    </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B40">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>290</v>
       </c>
-    </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B41">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>291</v>
       </c>
-    </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>292</v>
       </c>
-    </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>293</v>
       </c>
-    </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B44">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>294</v>
       </c>
-    </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>295</v>
       </c>
-    </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B46">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>296</v>
       </c>
-    </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B47">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>297</v>
       </c>
-    </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B48">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>298</v>
       </c>
-    </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B49">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>299</v>
       </c>
-    </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B50">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>300</v>
       </c>
-    </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>301</v>
       </c>
-    </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B52">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>302</v>
       </c>
-    </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B53">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>303</v>
       </c>
-    </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B55">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>304</v>
       </c>
-    </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B56">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>305</v>
       </c>
-    </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B57">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B58">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>306</v>
       </c>
-    </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>307</v>
       </c>
-    </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B60">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B61">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>308</v>
       </c>
-    </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B62">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>309</v>
       </c>
-    </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B63">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>310</v>
       </c>
-    </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>311</v>
       </c>
-    </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B65">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>312</v>
       </c>
-    </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B66">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>313</v>
       </c>
-    </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B67">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>314</v>
       </c>
-    </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B68">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B69">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>315</v>
       </c>
-    </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B70">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>316</v>
       </c>
-    </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B71">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B72">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>317</v>
       </c>
-    </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B73">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>318</v>
       </c>
-    </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B74">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>319</v>
       </c>
-    </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B75">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>320</v>
       </c>
-    </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B76">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>146</v>
       </c>
-    </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B77">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>321</v>
       </c>
-    </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B78">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>147</v>
       </c>
-    </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>322</v>
       </c>
-    </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B80">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>323</v>
       </c>
-    </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B81">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>324</v>
       </c>
-    </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B82">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>325</v>
       </c>
-    </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B83">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>326</v>
       </c>
-    </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B84">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>327</v>
       </c>
-    </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B85">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>328</v>
       </c>
-    </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B86">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>329</v>
       </c>
-    </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B87">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>330</v>
       </c>
-    </row>
-    <row r="89" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B88">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>331</v>
       </c>
-    </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B89">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>332</v>
       </c>
-    </row>
-    <row r="91" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B90">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="92" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B91">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>333</v>
       </c>
-    </row>
-    <row r="93" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B92">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>334</v>
       </c>
-    </row>
-    <row r="94" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B93">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>335</v>
       </c>
-    </row>
-    <row r="95" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B94">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>336</v>
       </c>
-    </row>
-    <row r="96" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B95">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>337</v>
       </c>
-    </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B96">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>338</v>
       </c>
-    </row>
-    <row r="98" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B97">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>339</v>
       </c>
-    </row>
-    <row r="99" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B98">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>340</v>
       </c>
-    </row>
-    <row r="100" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B99">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>241</v>
       </c>
-    </row>
-    <row r="101" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B100">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>341</v>
       </c>
     </row>
-    <row r="102" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
         <v>342</v>
       </c>
     </row>
-    <row r="103" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
         <v>343</v>
       </c>
     </row>
-    <row r="104" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
         <v>344</v>
       </c>
     </row>
-    <row r="105" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
         <v>345</v>
       </c>
     </row>
-    <row r="106" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
         <v>346</v>
       </c>
     </row>
-    <row r="107" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
         <v>347</v>
       </c>
     </row>
-    <row r="108" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
         <v>348</v>
       </c>
     </row>
-    <row r="109" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="110" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
         <v>349</v>
       </c>
     </row>
-    <row r="111" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
         <v>350</v>
       </c>
     </row>
-    <row r="112" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
         <v>61</v>
       </c>

--- a/Nintendo.xlsx
+++ b/Nintendo.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21929"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Fernando\Documents\2° semestre\Ciência dos dados\CieDados-P2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gabri\Documents\Insper\Segundo Semestre\Ciencia dos Dados\CieDados-P2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29DB3F64-F117-43FD-8FE9-D4C992D2DA8B}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{518376F9-838C-41FD-8906-FB105A993DEC}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3204" yWindow="3204" windowWidth="17280" windowHeight="8964" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Treinamento" sheetId="1" r:id="rId1"/>
@@ -3621,17 +3621,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B526"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="59" workbookViewId="0">
+    <sheetView zoomScale="59" workbookViewId="0">
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="255.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="255.6640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="19" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>899</v>
       </c>
@@ -3639,7 +3639,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -3647,7 +3647,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -3655,7 +3655,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -3663,7 +3663,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -3671,7 +3671,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -3679,7 +3679,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -3687,7 +3687,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -3695,7 +3695,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -3703,7 +3703,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -3711,7 +3711,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -3719,7 +3719,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>10</v>
       </c>
@@ -3727,7 +3727,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>11</v>
       </c>
@@ -3735,7 +3735,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>12</v>
       </c>
@@ -3743,7 +3743,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>13</v>
       </c>
@@ -3751,7 +3751,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>14</v>
       </c>
@@ -3759,7 +3759,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>15</v>
       </c>
@@ -3767,7 +3767,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>16</v>
       </c>
@@ -3775,7 +3775,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>17</v>
       </c>
@@ -3783,7 +3783,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>18</v>
       </c>
@@ -3791,7 +3791,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>19</v>
       </c>
@@ -3799,7 +3799,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>20</v>
       </c>
@@ -3807,7 +3807,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>21</v>
       </c>
@@ -3815,7 +3815,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>22</v>
       </c>
@@ -3823,7 +3823,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>23</v>
       </c>
@@ -3831,7 +3831,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>24</v>
       </c>
@@ -3839,7 +3839,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>25</v>
       </c>
@@ -3847,7 +3847,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>26</v>
       </c>
@@ -3855,7 +3855,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>27</v>
       </c>
@@ -3863,7 +3863,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>28</v>
       </c>
@@ -3871,7 +3871,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>29</v>
       </c>
@@ -3879,7 +3879,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>30</v>
       </c>
@@ -3887,7 +3887,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>31</v>
       </c>
@@ -3895,7 +3895,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>32</v>
       </c>
@@ -3903,7 +3903,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>33</v>
       </c>
@@ -3911,7 +3911,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>34</v>
       </c>
@@ -3919,7 +3919,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>35</v>
       </c>
@@ -3927,7 +3927,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>36</v>
       </c>
@@ -3935,7 +3935,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>37</v>
       </c>
@@ -3943,7 +3943,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>38</v>
       </c>
@@ -3951,7 +3951,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>39</v>
       </c>
@@ -3959,7 +3959,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>40</v>
       </c>
@@ -3967,7 +3967,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>41</v>
       </c>
@@ -3975,7 +3975,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>42</v>
       </c>
@@ -3983,7 +3983,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>43</v>
       </c>
@@ -3991,7 +3991,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>44</v>
       </c>
@@ -3999,7 +3999,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>45</v>
       </c>
@@ -4007,7 +4007,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>46</v>
       </c>
@@ -4015,7 +4015,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>47</v>
       </c>
@@ -4023,7 +4023,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>48</v>
       </c>
@@ -4031,7 +4031,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>49</v>
       </c>
@@ -4039,7 +4039,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>50</v>
       </c>
@@ -4047,7 +4047,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>51</v>
       </c>
@@ -4055,7 +4055,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>52</v>
       </c>
@@ -4063,7 +4063,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>53</v>
       </c>
@@ -4071,7 +4071,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>54</v>
       </c>
@@ -4079,7 +4079,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>55</v>
       </c>
@@ -4087,7 +4087,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>56</v>
       </c>
@@ -4095,7 +4095,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>57</v>
       </c>
@@ -4103,7 +4103,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>58</v>
       </c>
@@ -4111,7 +4111,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>59</v>
       </c>
@@ -4119,7 +4119,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>60</v>
       </c>
@@ -4127,7 +4127,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>61</v>
       </c>
@@ -4135,7 +4135,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>62</v>
       </c>
@@ -4143,7 +4143,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>63</v>
       </c>
@@ -4151,7 +4151,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>64</v>
       </c>
@@ -4159,7 +4159,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>65</v>
       </c>
@@ -4167,7 +4167,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>66</v>
       </c>
@@ -4175,7 +4175,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>67</v>
       </c>
@@ -4183,7 +4183,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>68</v>
       </c>
@@ -4191,7 +4191,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>69</v>
       </c>
@@ -4199,7 +4199,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>70</v>
       </c>
@@ -4207,7 +4207,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>71</v>
       </c>
@@ -4215,7 +4215,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>72</v>
       </c>
@@ -4223,7 +4223,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>73</v>
       </c>
@@ -4231,7 +4231,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>74</v>
       </c>
@@ -4239,7 +4239,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>75</v>
       </c>
@@ -4247,7 +4247,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>76</v>
       </c>
@@ -4255,7 +4255,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>77</v>
       </c>
@@ -4263,7 +4263,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>78</v>
       </c>
@@ -4271,7 +4271,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>79</v>
       </c>
@@ -4279,7 +4279,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>80</v>
       </c>
@@ -4287,7 +4287,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>81</v>
       </c>
@@ -4295,7 +4295,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>82</v>
       </c>
@@ -4303,7 +4303,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>83</v>
       </c>
@@ -4311,7 +4311,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>84</v>
       </c>
@@ -4319,7 +4319,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>85</v>
       </c>
@@ -4327,7 +4327,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>86</v>
       </c>
@@ -4335,7 +4335,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>87</v>
       </c>
@@ -4343,7 +4343,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>88</v>
       </c>
@@ -4351,7 +4351,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>89</v>
       </c>
@@ -4359,7 +4359,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>90</v>
       </c>
@@ -4367,7 +4367,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>91</v>
       </c>
@@ -4375,7 +4375,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>92</v>
       </c>
@@ -4383,7 +4383,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>93</v>
       </c>
@@ -4391,7 +4391,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>94</v>
       </c>
@@ -4399,7 +4399,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>95</v>
       </c>
@@ -4407,7 +4407,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>96</v>
       </c>
@@ -4415,7 +4415,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>97</v>
       </c>
@@ -4423,7 +4423,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>98</v>
       </c>
@@ -4431,7 +4431,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>99</v>
       </c>
@@ -4439,7 +4439,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
         <v>100</v>
       </c>
@@ -4447,7 +4447,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
         <v>101</v>
       </c>
@@ -4455,7 +4455,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
         <v>102</v>
       </c>
@@ -4463,7 +4463,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
         <v>103</v>
       </c>
@@ -4471,7 +4471,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
         <v>104</v>
       </c>
@@ -4479,7 +4479,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
         <v>105</v>
       </c>
@@ -4487,7 +4487,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
         <v>106</v>
       </c>
@@ -4495,7 +4495,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
         <v>107</v>
       </c>
@@ -4503,7 +4503,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
         <v>108</v>
       </c>
@@ -4511,7 +4511,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
         <v>109</v>
       </c>
@@ -4519,7 +4519,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
         <v>110</v>
       </c>
@@ -4527,7 +4527,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
         <v>111</v>
       </c>
@@ -4535,7 +4535,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
         <v>112</v>
       </c>
@@ -4543,7 +4543,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
         <v>113</v>
       </c>
@@ -4551,7 +4551,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
         <v>114</v>
       </c>
@@ -4559,7 +4559,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
         <v>115</v>
       </c>
@@ -4567,7 +4567,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
         <v>116</v>
       </c>
@@ -4575,7 +4575,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
         <v>117</v>
       </c>
@@ -4583,7 +4583,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
         <v>118</v>
       </c>
@@ -4591,7 +4591,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
         <v>119</v>
       </c>
@@ -4599,7 +4599,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
         <v>120</v>
       </c>
@@ -4607,7 +4607,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
         <v>121</v>
       </c>
@@ -4615,7 +4615,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
         <v>122</v>
       </c>
@@ -4623,7 +4623,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
         <v>123</v>
       </c>
@@ -4631,7 +4631,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
         <v>124</v>
       </c>
@@ -4639,7 +4639,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
         <v>125</v>
       </c>
@@ -4647,7 +4647,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
         <v>126</v>
       </c>
@@ -4655,7 +4655,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
         <v>127</v>
       </c>
@@ -4663,7 +4663,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
         <v>128</v>
       </c>
@@ -4671,7 +4671,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
         <v>129</v>
       </c>
@@ -4679,7 +4679,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
         <v>130</v>
       </c>
@@ -4687,7 +4687,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
         <v>131</v>
       </c>
@@ -4695,7 +4695,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
         <v>132</v>
       </c>
@@ -4703,7 +4703,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
         <v>133</v>
       </c>
@@ -4711,7 +4711,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
         <v>134</v>
       </c>
@@ -4719,7 +4719,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
         <v>135</v>
       </c>
@@ -4727,7 +4727,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
         <v>136</v>
       </c>
@@ -4735,7 +4735,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
         <v>137</v>
       </c>
@@ -4743,7 +4743,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
         <v>138</v>
       </c>
@@ -4751,7 +4751,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
         <v>139</v>
       </c>
@@ -4759,7 +4759,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
         <v>140</v>
       </c>
@@ -4767,7 +4767,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
         <v>141</v>
       </c>
@@ -4775,7 +4775,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
         <v>142</v>
       </c>
@@ -4783,7 +4783,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
         <v>143</v>
       </c>
@@ -4791,7 +4791,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
         <v>144</v>
       </c>
@@ -4799,7 +4799,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
         <v>145</v>
       </c>
@@ -4807,7 +4807,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="148" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
         <v>146</v>
       </c>
@@ -4815,7 +4815,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="149" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
         <v>147</v>
       </c>
@@ -4823,7 +4823,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="150" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
         <v>148</v>
       </c>
@@ -4831,7 +4831,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="151" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
         <v>149</v>
       </c>
@@ -4839,7 +4839,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="152" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
         <v>150</v>
       </c>
@@ -4847,7 +4847,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="153" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
         <v>151</v>
       </c>
@@ -4855,7 +4855,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="154" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
         <v>152</v>
       </c>
@@ -4863,7 +4863,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="155" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
         <v>153</v>
       </c>
@@ -4871,7 +4871,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="156" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
         <v>154</v>
       </c>
@@ -4879,7 +4879,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="157" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
         <v>155</v>
       </c>
@@ -4887,7 +4887,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="158" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
         <v>156</v>
       </c>
@@ -4895,7 +4895,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="159" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
         <v>157</v>
       </c>
@@ -4903,7 +4903,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="160" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
         <v>158</v>
       </c>
@@ -4911,7 +4911,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="161" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
         <v>159</v>
       </c>
@@ -4919,7 +4919,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="162" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
         <v>160</v>
       </c>
@@ -4927,7 +4927,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="163" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
         <v>161</v>
       </c>
@@ -4935,7 +4935,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="164" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
         <v>162</v>
       </c>
@@ -4943,7 +4943,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="165" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
         <v>163</v>
       </c>
@@ -4951,7 +4951,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="166" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
         <v>164</v>
       </c>
@@ -4959,7 +4959,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="167" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
         <v>165</v>
       </c>
@@ -4967,7 +4967,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="168" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
         <v>166</v>
       </c>
@@ -4975,7 +4975,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="169" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
         <v>167</v>
       </c>
@@ -4983,7 +4983,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="170" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
         <v>168</v>
       </c>
@@ -4991,7 +4991,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="171" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
         <v>169</v>
       </c>
@@ -4999,7 +4999,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="172" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
         <v>170</v>
       </c>
@@ -5007,7 +5007,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="173" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
         <v>171</v>
       </c>
@@ -5015,7 +5015,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="174" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
         <v>172</v>
       </c>
@@ -5023,7 +5023,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="175" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A175" t="s">
         <v>173</v>
       </c>
@@ -5031,7 +5031,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="176" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A176" t="s">
         <v>174</v>
       </c>
@@ -5039,7 +5039,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="177" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A177" t="s">
         <v>175</v>
       </c>
@@ -5047,7 +5047,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="178" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A178" t="s">
         <v>176</v>
       </c>
@@ -5055,7 +5055,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="179" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A179" t="s">
         <v>177</v>
       </c>
@@ -5063,7 +5063,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="180" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A180" t="s">
         <v>178</v>
       </c>
@@ -5071,7 +5071,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="181" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A181" t="s">
         <v>179</v>
       </c>
@@ -5079,7 +5079,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="182" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A182" t="s">
         <v>180</v>
       </c>
@@ -5087,7 +5087,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="183" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A183" t="s">
         <v>181</v>
       </c>
@@ -5095,7 +5095,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="184" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A184" t="s">
         <v>182</v>
       </c>
@@ -5103,7 +5103,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="185" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A185" t="s">
         <v>183</v>
       </c>
@@ -5111,7 +5111,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="186" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A186" t="s">
         <v>184</v>
       </c>
@@ -5119,7 +5119,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="187" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A187" t="s">
         <v>185</v>
       </c>
@@ -5127,7 +5127,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="188" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A188" t="s">
         <v>186</v>
       </c>
@@ -5135,7 +5135,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="189" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A189" t="s">
         <v>187</v>
       </c>
@@ -5143,7 +5143,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="190" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A190" t="s">
         <v>188</v>
       </c>
@@ -5151,7 +5151,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="191" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A191" t="s">
         <v>189</v>
       </c>
@@ -5159,7 +5159,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="192" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A192" t="s">
         <v>190</v>
       </c>
@@ -5167,7 +5167,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="193" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A193" t="s">
         <v>191</v>
       </c>
@@ -5175,7 +5175,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="194" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A194" t="s">
         <v>192</v>
       </c>
@@ -5183,7 +5183,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="195" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A195" t="s">
         <v>193</v>
       </c>
@@ -5191,7 +5191,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="196" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A196" t="s">
         <v>194</v>
       </c>
@@ -5199,7 +5199,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="197" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A197" t="s">
         <v>195</v>
       </c>
@@ -5207,7 +5207,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="198" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A198" t="s">
         <v>196</v>
       </c>
@@ -5215,7 +5215,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="199" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A199" t="s">
         <v>197</v>
       </c>
@@ -5223,7 +5223,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="200" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A200" t="s">
         <v>198</v>
       </c>
@@ -5231,7 +5231,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="201" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A201" t="s">
         <v>199</v>
       </c>
@@ -5239,7 +5239,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="202" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A202" t="s">
         <v>200</v>
       </c>
@@ -5247,7 +5247,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="203" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A203" t="s">
         <v>201</v>
       </c>
@@ -5255,7 +5255,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="204" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A204" t="s">
         <v>202</v>
       </c>
@@ -5263,7 +5263,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="205" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A205" t="s">
         <v>203</v>
       </c>
@@ -5271,7 +5271,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="206" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A206" t="s">
         <v>204</v>
       </c>
@@ -5279,7 +5279,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="207" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A207" t="s">
         <v>205</v>
       </c>
@@ -5287,7 +5287,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="208" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A208" t="s">
         <v>206</v>
       </c>
@@ -5295,7 +5295,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="209" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A209" t="s">
         <v>207</v>
       </c>
@@ -5303,7 +5303,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="210" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A210" t="s">
         <v>208</v>
       </c>
@@ -5311,7 +5311,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="211" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A211" t="s">
         <v>209</v>
       </c>
@@ -5319,7 +5319,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="212" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A212" t="s">
         <v>210</v>
       </c>
@@ -5327,7 +5327,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="213" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A213" t="s">
         <v>211</v>
       </c>
@@ -5335,7 +5335,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="214" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A214" t="s">
         <v>212</v>
       </c>
@@ -5343,7 +5343,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="215" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A215" t="s">
         <v>213</v>
       </c>
@@ -5351,7 +5351,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="216" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A216" t="s">
         <v>214</v>
       </c>
@@ -5359,7 +5359,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="217" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A217" t="s">
         <v>215</v>
       </c>
@@ -5367,7 +5367,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="218" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A218" t="s">
         <v>216</v>
       </c>
@@ -5375,7 +5375,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="219" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A219" t="s">
         <v>217</v>
       </c>
@@ -5383,7 +5383,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="220" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A220" t="s">
         <v>218</v>
       </c>
@@ -5391,7 +5391,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="221" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A221" t="s">
         <v>219</v>
       </c>
@@ -5399,7 +5399,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="222" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A222" t="s">
         <v>220</v>
       </c>
@@ -5407,7 +5407,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="223" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A223" t="s">
         <v>221</v>
       </c>
@@ -5415,7 +5415,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="224" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A224" t="s">
         <v>222</v>
       </c>
@@ -5423,7 +5423,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="225" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A225" t="s">
         <v>223</v>
       </c>
@@ -5431,7 +5431,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="226" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A226" t="s">
         <v>224</v>
       </c>
@@ -5439,7 +5439,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="227" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A227" t="s">
         <v>225</v>
       </c>
@@ -5447,7 +5447,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="228" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A228" t="s">
         <v>226</v>
       </c>
@@ -5455,7 +5455,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="229" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A229" t="s">
         <v>227</v>
       </c>
@@ -5463,7 +5463,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="230" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A230" t="s">
         <v>228</v>
       </c>
@@ -5471,7 +5471,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="231" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A231" t="s">
         <v>229</v>
       </c>
@@ -5479,7 +5479,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="232" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A232" t="s">
         <v>230</v>
       </c>
@@ -5487,7 +5487,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="233" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A233" t="s">
         <v>231</v>
       </c>
@@ -5495,7 +5495,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="234" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A234" t="s">
         <v>232</v>
       </c>
@@ -5503,7 +5503,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="235" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A235" t="s">
         <v>233</v>
       </c>
@@ -5511,7 +5511,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="236" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A236" t="s">
         <v>234</v>
       </c>
@@ -5519,7 +5519,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="237" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A237" t="s">
         <v>235</v>
       </c>
@@ -5527,7 +5527,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="238" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A238" t="s">
         <v>236</v>
       </c>
@@ -5535,7 +5535,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="239" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A239" t="s">
         <v>237</v>
       </c>
@@ -5543,7 +5543,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="240" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A240" t="s">
         <v>238</v>
       </c>
@@ -5551,7 +5551,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="241" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A241" t="s">
         <v>239</v>
       </c>
@@ -5559,7 +5559,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="242" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A242" t="s">
         <v>240</v>
       </c>
@@ -5567,7 +5567,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="243" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A243" t="s">
         <v>241</v>
       </c>
@@ -5575,7 +5575,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="244" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A244" t="s">
         <v>242</v>
       </c>
@@ -5583,7 +5583,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="245" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A245" t="s">
         <v>243</v>
       </c>
@@ -5591,7 +5591,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="246" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A246" t="s">
         <v>244</v>
       </c>
@@ -5599,7 +5599,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="247" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A247" t="s">
         <v>245</v>
       </c>
@@ -5607,7 +5607,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="248" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A248" t="s">
         <v>246</v>
       </c>
@@ -5615,7 +5615,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="249" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A249" t="s">
         <v>247</v>
       </c>
@@ -5623,7 +5623,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="250" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A250" t="s">
         <v>248</v>
       </c>
@@ -5631,7 +5631,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="251" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A251" t="s">
         <v>249</v>
       </c>
@@ -5639,7 +5639,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="252" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A252" t="s">
         <v>250</v>
       </c>
@@ -5647,7 +5647,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="253" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A253" t="s">
         <v>251</v>
       </c>
@@ -5655,7 +5655,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="254" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A254" t="s">
         <v>252</v>
       </c>
@@ -5663,7 +5663,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="255" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A255" t="s">
         <v>253</v>
       </c>
@@ -5671,7 +5671,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="256" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A256" t="s">
         <v>254</v>
       </c>
@@ -5679,7 +5679,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="257" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A257" t="s">
         <v>255</v>
       </c>
@@ -5687,7 +5687,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="258" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A258" t="s">
         <v>256</v>
       </c>
@@ -5695,7 +5695,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="259" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A259" t="s">
         <v>257</v>
       </c>
@@ -5703,7 +5703,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="260" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A260" t="s">
         <v>258</v>
       </c>
@@ -5711,7 +5711,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="261" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A261" t="s">
         <v>259</v>
       </c>
@@ -5719,7 +5719,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="262" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A262" t="s">
         <v>260</v>
       </c>
@@ -5727,7 +5727,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="263" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A263" t="s">
         <v>261</v>
       </c>
@@ -5735,7 +5735,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="264" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A264" t="s">
         <v>262</v>
       </c>
@@ -5743,7 +5743,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="265" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A265" t="s">
         <v>263</v>
       </c>
@@ -5751,7 +5751,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="266" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A266" t="s">
         <v>264</v>
       </c>
@@ -5759,7 +5759,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="267" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A267" t="s">
         <v>265</v>
       </c>
@@ -5767,7 +5767,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="268" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A268" t="s">
         <v>266</v>
       </c>
@@ -5775,7 +5775,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="269" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A269" t="s">
         <v>267</v>
       </c>
@@ -5783,7 +5783,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="270" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A270" t="s">
         <v>268</v>
       </c>
@@ -5791,7 +5791,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="271" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A271" t="s">
         <v>269</v>
       </c>
@@ -5799,7 +5799,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="272" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A272" t="s">
         <v>270</v>
       </c>
@@ -5807,7 +5807,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="273" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A273" t="s">
         <v>271</v>
       </c>
@@ -5815,7 +5815,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="274" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A274" t="s">
         <v>272</v>
       </c>
@@ -5823,7 +5823,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="275" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A275" t="s">
         <v>273</v>
       </c>
@@ -5831,7 +5831,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="276" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A276" t="s">
         <v>274</v>
       </c>
@@ -5839,7 +5839,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="277" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A277" t="s">
         <v>275</v>
       </c>
@@ -5847,7 +5847,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="278" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A278" t="s">
         <v>276</v>
       </c>
@@ -5855,7 +5855,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="279" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A279" t="s">
         <v>277</v>
       </c>
@@ -5863,7 +5863,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="280" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A280" t="s">
         <v>278</v>
       </c>
@@ -5871,7 +5871,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="281" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A281" t="s">
         <v>279</v>
       </c>
@@ -5879,7 +5879,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="282" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A282" t="s">
         <v>280</v>
       </c>
@@ -5887,7 +5887,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="283" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A283" t="s">
         <v>281</v>
       </c>
@@ -5895,7 +5895,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="284" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A284" t="s">
         <v>282</v>
       </c>
@@ -5903,7 +5903,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="285" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A285" t="s">
         <v>283</v>
       </c>
@@ -5911,7 +5911,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="286" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A286" t="s">
         <v>284</v>
       </c>
@@ -5919,7 +5919,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="287" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A287" t="s">
         <v>285</v>
       </c>
@@ -5927,7 +5927,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="288" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A288" t="s">
         <v>286</v>
       </c>
@@ -5935,7 +5935,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="289" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A289" t="s">
         <v>287</v>
       </c>
@@ -5943,7 +5943,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="290" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A290" t="s">
         <v>288</v>
       </c>
@@ -5951,7 +5951,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="291" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A291" t="s">
         <v>289</v>
       </c>
@@ -5959,7 +5959,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="292" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A292" t="s">
         <v>290</v>
       </c>
@@ -5967,7 +5967,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="293" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A293" t="s">
         <v>291</v>
       </c>
@@ -5975,7 +5975,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="294" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A294" t="s">
         <v>292</v>
       </c>
@@ -5983,7 +5983,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="295" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A295" t="s">
         <v>293</v>
       </c>
@@ -5991,7 +5991,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="296" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A296" t="s">
         <v>294</v>
       </c>
@@ -5999,7 +5999,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="297" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A297" t="s">
         <v>295</v>
       </c>
@@ -6007,7 +6007,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="298" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A298" t="s">
         <v>296</v>
       </c>
@@ -6015,7 +6015,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="299" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A299" t="s">
         <v>297</v>
       </c>
@@ -6023,7 +6023,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="300" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A300" t="s">
         <v>298</v>
       </c>
@@ -6031,7 +6031,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="301" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A301" t="s">
         <v>299</v>
       </c>
@@ -6039,7 +6039,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="302" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A302" t="s">
         <v>300</v>
       </c>
@@ -6047,7 +6047,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="303" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A303" t="s">
         <v>301</v>
       </c>
@@ -6055,7 +6055,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="304" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A304" t="s">
         <v>302</v>
       </c>
@@ -6063,7 +6063,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="305" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A305" t="s">
         <v>303</v>
       </c>
@@ -6071,7 +6071,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="306" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A306" t="s">
         <v>304</v>
       </c>
@@ -6079,7 +6079,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="307" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A307" t="s">
         <v>305</v>
       </c>
@@ -6087,7 +6087,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="308" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A308" t="s">
         <v>306</v>
       </c>
@@ -6095,7 +6095,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="309" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A309" t="s">
         <v>307</v>
       </c>
@@ -6103,7 +6103,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="310" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A310" t="s">
         <v>308</v>
       </c>
@@ -6111,7 +6111,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="311" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A311" t="s">
         <v>309</v>
       </c>
@@ -6119,7 +6119,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="312" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A312" t="s">
         <v>310</v>
       </c>
@@ -6127,7 +6127,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="313" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A313" t="s">
         <v>311</v>
       </c>
@@ -6135,7 +6135,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="314" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A314" t="s">
         <v>312</v>
       </c>
@@ -6143,7 +6143,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="315" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A315" t="s">
         <v>313</v>
       </c>
@@ -6151,7 +6151,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="316" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A316" t="s">
         <v>314</v>
       </c>
@@ -6159,7 +6159,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="317" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A317" t="s">
         <v>315</v>
       </c>
@@ -6167,7 +6167,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="318" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A318" t="s">
         <v>316</v>
       </c>
@@ -6175,7 +6175,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="319" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A319" t="s">
         <v>317</v>
       </c>
@@ -6183,7 +6183,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="320" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A320" t="s">
         <v>318</v>
       </c>
@@ -6191,7 +6191,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="321" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A321" t="s">
         <v>319</v>
       </c>
@@ -6199,7 +6199,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="322" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A322" t="s">
         <v>320</v>
       </c>
@@ -6207,7 +6207,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="323" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A323" t="s">
         <v>321</v>
       </c>
@@ -6215,7 +6215,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="324" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A324" t="s">
         <v>322</v>
       </c>
@@ -6223,7 +6223,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="325" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A325" t="s">
         <v>323</v>
       </c>
@@ -6231,7 +6231,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="326" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A326" t="s">
         <v>324</v>
       </c>
@@ -6239,7 +6239,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="327" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A327" t="s">
         <v>325</v>
       </c>
@@ -6247,7 +6247,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="328" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A328" t="s">
         <v>326</v>
       </c>
@@ -6255,7 +6255,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="329" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A329" t="s">
         <v>327</v>
       </c>
@@ -6263,7 +6263,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="330" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A330" t="s">
         <v>328</v>
       </c>
@@ -6271,7 +6271,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="331" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A331" t="s">
         <v>329</v>
       </c>
@@ -6279,7 +6279,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="332" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A332" t="s">
         <v>330</v>
       </c>
@@ -6287,7 +6287,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="333" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A333" t="s">
         <v>331</v>
       </c>
@@ -6295,7 +6295,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="334" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A334" t="s">
         <v>332</v>
       </c>
@@ -6303,7 +6303,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="335" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A335" t="s">
         <v>333</v>
       </c>
@@ -6311,7 +6311,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="336" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A336" t="s">
         <v>334</v>
       </c>
@@ -6319,7 +6319,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="337" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A337" t="s">
         <v>335</v>
       </c>
@@ -6327,7 +6327,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="338" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A338" t="s">
         <v>336</v>
       </c>
@@ -6335,7 +6335,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="339" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A339" t="s">
         <v>337</v>
       </c>
@@ -6343,7 +6343,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="340" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A340" t="s">
         <v>338</v>
       </c>
@@ -6351,7 +6351,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="341" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A341" t="s">
         <v>339</v>
       </c>
@@ -6359,7 +6359,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="342" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A342" t="s">
         <v>340</v>
       </c>
@@ -6367,7 +6367,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="343" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A343" t="s">
         <v>341</v>
       </c>
@@ -6375,7 +6375,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="344" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A344" t="s">
         <v>342</v>
       </c>
@@ -6383,7 +6383,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="345" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A345" t="s">
         <v>343</v>
       </c>
@@ -6391,7 +6391,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="346" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A346" t="s">
         <v>344</v>
       </c>
@@ -6399,7 +6399,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="347" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A347" t="s">
         <v>345</v>
       </c>
@@ -6407,7 +6407,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="348" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A348" t="s">
         <v>346</v>
       </c>
@@ -6415,7 +6415,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="349" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A349" t="s">
         <v>347</v>
       </c>
@@ -6423,7 +6423,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="350" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A350" t="s">
         <v>348</v>
       </c>
@@ -6431,7 +6431,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="351" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A351" t="s">
         <v>349</v>
       </c>
@@ -6439,7 +6439,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="352" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A352" t="s">
         <v>350</v>
       </c>
@@ -6447,7 +6447,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="353" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A353" t="s">
         <v>351</v>
       </c>
@@ -6455,7 +6455,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="354" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A354" t="s">
         <v>352</v>
       </c>
@@ -6463,7 +6463,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="355" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A355" t="s">
         <v>353</v>
       </c>
@@ -6471,7 +6471,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="356" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A356" t="s">
         <v>354</v>
       </c>
@@ -6479,7 +6479,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="357" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A357" t="s">
         <v>355</v>
       </c>
@@ -6487,7 +6487,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="358" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A358" t="s">
         <v>356</v>
       </c>
@@ -6495,7 +6495,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="359" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A359" t="s">
         <v>357</v>
       </c>
@@ -6503,7 +6503,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="360" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A360" t="s">
         <v>358</v>
       </c>
@@ -6511,7 +6511,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="361" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A361" t="s">
         <v>359</v>
       </c>
@@ -6519,7 +6519,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="362" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A362" t="s">
         <v>360</v>
       </c>
@@ -6527,7 +6527,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="363" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A363" t="s">
         <v>361</v>
       </c>
@@ -6535,7 +6535,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="364" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A364" t="s">
         <v>362</v>
       </c>
@@ -6543,7 +6543,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="365" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A365" t="s">
         <v>363</v>
       </c>
@@ -6551,7 +6551,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="366" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A366" t="s">
         <v>364</v>
       </c>
@@ -6559,7 +6559,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="367" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A367" t="s">
         <v>365</v>
       </c>
@@ -6567,7 +6567,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="368" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A368" t="s">
         <v>366</v>
       </c>
@@ -6575,7 +6575,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="369" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A369" t="s">
         <v>367</v>
       </c>
@@ -6583,7 +6583,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="370" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A370" t="s">
         <v>368</v>
       </c>
@@ -6591,7 +6591,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="371" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A371" t="s">
         <v>369</v>
       </c>
@@ -6599,7 +6599,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="372" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A372" t="s">
         <v>370</v>
       </c>
@@ -6607,7 +6607,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="373" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A373" t="s">
         <v>371</v>
       </c>
@@ -6615,7 +6615,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="374" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A374" t="s">
         <v>372</v>
       </c>
@@ -6623,7 +6623,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="375" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A375" t="s">
         <v>373</v>
       </c>
@@ -6631,7 +6631,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="376" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A376" t="s">
         <v>374</v>
       </c>
@@ -6639,7 +6639,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="377" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A377" t="s">
         <v>375</v>
       </c>
@@ -6647,7 +6647,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="378" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A378" t="s">
         <v>376</v>
       </c>
@@ -6655,7 +6655,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="379" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A379" t="s">
         <v>377</v>
       </c>
@@ -6663,7 +6663,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="380" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A380" t="s">
         <v>378</v>
       </c>
@@ -6671,7 +6671,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="381" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A381" t="s">
         <v>379</v>
       </c>
@@ -6679,7 +6679,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="382" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A382" t="s">
         <v>380</v>
       </c>
@@ -6687,7 +6687,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="383" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A383" t="s">
         <v>381</v>
       </c>
@@ -6695,7 +6695,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="384" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A384" t="s">
         <v>382</v>
       </c>
@@ -6703,7 +6703,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="385" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A385" t="s">
         <v>383</v>
       </c>
@@ -6711,7 +6711,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="386" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A386" t="s">
         <v>384</v>
       </c>
@@ -6719,7 +6719,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="387" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A387" t="s">
         <v>385</v>
       </c>
@@ -6727,7 +6727,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="388" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A388" t="s">
         <v>386</v>
       </c>
@@ -6735,7 +6735,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="389" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A389" t="s">
         <v>387</v>
       </c>
@@ -6743,7 +6743,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="390" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A390" t="s">
         <v>388</v>
       </c>
@@ -6751,7 +6751,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="391" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A391" t="s">
         <v>389</v>
       </c>
@@ -6759,7 +6759,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="392" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A392" t="s">
         <v>390</v>
       </c>
@@ -6767,7 +6767,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="393" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A393" t="s">
         <v>391</v>
       </c>
@@ -6775,7 +6775,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="394" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A394" t="s">
         <v>392</v>
       </c>
@@ -6783,7 +6783,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="395" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A395" t="s">
         <v>393</v>
       </c>
@@ -6791,7 +6791,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="396" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A396" t="s">
         <v>394</v>
       </c>
@@ -6799,7 +6799,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="397" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A397" t="s">
         <v>395</v>
       </c>
@@ -6807,7 +6807,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="398" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A398" t="s">
         <v>396</v>
       </c>
@@ -6815,7 +6815,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="399" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A399" t="s">
         <v>397</v>
       </c>
@@ -6823,7 +6823,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="400" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A400" t="s">
         <v>398</v>
       </c>
@@ -6831,7 +6831,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="401" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A401" t="s">
         <v>399</v>
       </c>
@@ -6839,7 +6839,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="402" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A402" t="s">
         <v>400</v>
       </c>
@@ -6847,7 +6847,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="403" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A403" t="s">
         <v>401</v>
       </c>
@@ -6855,7 +6855,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="404" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A404" t="s">
         <v>402</v>
       </c>
@@ -6863,7 +6863,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="405" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A405" t="s">
         <v>403</v>
       </c>
@@ -6871,7 +6871,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="406" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A406" t="s">
         <v>404</v>
       </c>
@@ -6879,7 +6879,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="407" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A407" t="s">
         <v>405</v>
       </c>
@@ -6887,7 +6887,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="408" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A408" t="s">
         <v>406</v>
       </c>
@@ -6895,7 +6895,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="409" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A409" t="s">
         <v>407</v>
       </c>
@@ -6903,7 +6903,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="410" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A410" t="s">
         <v>408</v>
       </c>
@@ -6911,7 +6911,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="411" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A411" t="s">
         <v>409</v>
       </c>
@@ -6919,7 +6919,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="412" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A412" t="s">
         <v>410</v>
       </c>
@@ -6927,7 +6927,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="413" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A413" t="s">
         <v>411</v>
       </c>
@@ -6935,7 +6935,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="414" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A414" t="s">
         <v>412</v>
       </c>
@@ -6943,7 +6943,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="415" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A415" t="s">
         <v>413</v>
       </c>
@@ -6951,7 +6951,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="416" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A416" t="s">
         <v>414</v>
       </c>
@@ -6959,7 +6959,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="417" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A417" t="s">
         <v>415</v>
       </c>
@@ -6967,7 +6967,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="418" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A418" t="s">
         <v>416</v>
       </c>
@@ -6975,7 +6975,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="419" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A419" t="s">
         <v>417</v>
       </c>
@@ -6983,7 +6983,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="420" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A420" t="s">
         <v>418</v>
       </c>
@@ -6991,7 +6991,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="421" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A421" t="s">
         <v>419</v>
       </c>
@@ -6999,7 +6999,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="422" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A422" t="s">
         <v>420</v>
       </c>
@@ -7007,7 +7007,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="423" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A423" t="s">
         <v>421</v>
       </c>
@@ -7015,7 +7015,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="424" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A424" t="s">
         <v>422</v>
       </c>
@@ -7023,7 +7023,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="425" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A425" t="s">
         <v>423</v>
       </c>
@@ -7031,7 +7031,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="426" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A426" t="s">
         <v>424</v>
       </c>
@@ -7039,7 +7039,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="427" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A427" t="s">
         <v>425</v>
       </c>
@@ -7047,7 +7047,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="428" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A428" t="s">
         <v>426</v>
       </c>
@@ -7055,7 +7055,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="429" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A429" t="s">
         <v>427</v>
       </c>
@@ -7063,7 +7063,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="430" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A430" t="s">
         <v>428</v>
       </c>
@@ -7071,7 +7071,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="431" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A431" t="s">
         <v>429</v>
       </c>
@@ -7079,7 +7079,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="432" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A432" t="s">
         <v>430</v>
       </c>
@@ -7087,7 +7087,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="433" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A433" t="s">
         <v>431</v>
       </c>
@@ -7095,7 +7095,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="434" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A434" t="s">
         <v>432</v>
       </c>
@@ -7103,7 +7103,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="435" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A435" t="s">
         <v>433</v>
       </c>
@@ -7111,7 +7111,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="436" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A436" t="s">
         <v>434</v>
       </c>
@@ -7119,7 +7119,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="437" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A437" t="s">
         <v>435</v>
       </c>
@@ -7127,7 +7127,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="438" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A438" t="s">
         <v>436</v>
       </c>
@@ -7135,7 +7135,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="439" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A439" t="s">
         <v>437</v>
       </c>
@@ -7143,7 +7143,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="440" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A440" t="s">
         <v>438</v>
       </c>
@@ -7151,7 +7151,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="441" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A441" t="s">
         <v>439</v>
       </c>
@@ -7159,7 +7159,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="442" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A442" t="s">
         <v>440</v>
       </c>
@@ -7167,7 +7167,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="443" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A443" t="s">
         <v>441</v>
       </c>
@@ -7175,7 +7175,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="444" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A444" t="s">
         <v>442</v>
       </c>
@@ -7183,7 +7183,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="445" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A445" t="s">
         <v>443</v>
       </c>
@@ -7191,7 +7191,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="446" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A446" t="s">
         <v>444</v>
       </c>
@@ -7199,7 +7199,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="447" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A447" t="s">
         <v>445</v>
       </c>
@@ -7207,7 +7207,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="448" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A448" t="s">
         <v>446</v>
       </c>
@@ -7215,7 +7215,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="449" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A449" t="s">
         <v>447</v>
       </c>
@@ -7223,7 +7223,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="450" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A450" t="s">
         <v>448</v>
       </c>
@@ -7231,7 +7231,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="451" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A451" t="s">
         <v>449</v>
       </c>
@@ -7239,7 +7239,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="452" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A452" t="s">
         <v>450</v>
       </c>
@@ -7247,7 +7247,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="453" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A453" t="s">
         <v>451</v>
       </c>
@@ -7255,7 +7255,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="454" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A454" t="s">
         <v>452</v>
       </c>
@@ -7263,7 +7263,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="455" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A455" t="s">
         <v>453</v>
       </c>
@@ -7271,7 +7271,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="456" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A456" t="s">
         <v>454</v>
       </c>
@@ -7279,7 +7279,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="457" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A457" t="s">
         <v>455</v>
       </c>
@@ -7287,7 +7287,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="458" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A458" t="s">
         <v>456</v>
       </c>
@@ -7295,7 +7295,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="459" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A459" t="s">
         <v>457</v>
       </c>
@@ -7303,7 +7303,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="460" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A460" t="s">
         <v>458</v>
       </c>
@@ -7311,7 +7311,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="461" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A461" t="s">
         <v>459</v>
       </c>
@@ -7319,7 +7319,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="462" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A462" t="s">
         <v>460</v>
       </c>
@@ -7327,7 +7327,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="463" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A463" t="s">
         <v>461</v>
       </c>
@@ -7335,7 +7335,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="464" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A464" t="s">
         <v>462</v>
       </c>
@@ -7343,7 +7343,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="465" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="465" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A465" t="s">
         <v>463</v>
       </c>
@@ -7351,7 +7351,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="466" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="466" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A466" t="s">
         <v>464</v>
       </c>
@@ -7359,7 +7359,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="467" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A467" t="s">
         <v>465</v>
       </c>
@@ -7367,7 +7367,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="468" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A468" t="s">
         <v>466</v>
       </c>
@@ -7375,7 +7375,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="469" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="469" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A469" t="s">
         <v>467</v>
       </c>
@@ -7383,7 +7383,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="470" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="470" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A470" t="s">
         <v>468</v>
       </c>
@@ -7391,7 +7391,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="471" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="471" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A471" t="s">
         <v>469</v>
       </c>
@@ -7399,7 +7399,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="472" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="472" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A472" t="s">
         <v>470</v>
       </c>
@@ -7407,7 +7407,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="473" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="473" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A473" t="s">
         <v>471</v>
       </c>
@@ -7415,7 +7415,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="474" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="474" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A474" t="s">
         <v>472</v>
       </c>
@@ -7423,7 +7423,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="475" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="475" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A475" t="s">
         <v>473</v>
       </c>
@@ -7431,7 +7431,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="476" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="476" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A476" t="s">
         <v>474</v>
       </c>
@@ -7439,7 +7439,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="477" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="477" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A477" t="s">
         <v>475</v>
       </c>
@@ -7447,7 +7447,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="478" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="478" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A478" t="s">
         <v>476</v>
       </c>
@@ -7455,7 +7455,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="479" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="479" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A479" t="s">
         <v>477</v>
       </c>
@@ -7463,7 +7463,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="480" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="480" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A480" t="s">
         <v>478</v>
       </c>
@@ -7471,7 +7471,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="481" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="481" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A481" t="s">
         <v>479</v>
       </c>
@@ -7479,7 +7479,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="482" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="482" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A482" t="s">
         <v>480</v>
       </c>
@@ -7487,7 +7487,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="483" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="483" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A483" t="s">
         <v>481</v>
       </c>
@@ -7495,7 +7495,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="484" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="484" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A484" t="s">
         <v>482</v>
       </c>
@@ -7503,7 +7503,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="485" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="485" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A485" t="s">
         <v>483</v>
       </c>
@@ -7511,7 +7511,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="486" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="486" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A486" t="s">
         <v>484</v>
       </c>
@@ -7519,7 +7519,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="487" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="487" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A487" t="s">
         <v>485</v>
       </c>
@@ -7527,7 +7527,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="488" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="488" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A488" t="s">
         <v>486</v>
       </c>
@@ -7535,7 +7535,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="489" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="489" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A489" t="s">
         <v>487</v>
       </c>
@@ -7543,7 +7543,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="490" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="490" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A490" t="s">
         <v>488</v>
       </c>
@@ -7551,7 +7551,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="491" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="491" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A491" t="s">
         <v>489</v>
       </c>
@@ -7559,7 +7559,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="492" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="492" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A492" t="s">
         <v>490</v>
       </c>
@@ -7567,7 +7567,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="493" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="493" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A493" t="s">
         <v>491</v>
       </c>
@@ -7575,7 +7575,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="494" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="494" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A494" t="s">
         <v>492</v>
       </c>
@@ -7583,7 +7583,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="495" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="495" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A495" t="s">
         <v>493</v>
       </c>
@@ -7591,7 +7591,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="496" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="496" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A496" t="s">
         <v>494</v>
       </c>
@@ -7599,7 +7599,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="497" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="497" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A497" t="s">
         <v>495</v>
       </c>
@@ -7607,7 +7607,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="498" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="498" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A498" t="s">
         <v>496</v>
       </c>
@@ -7615,7 +7615,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="499" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="499" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A499" t="s">
         <v>497</v>
       </c>
@@ -7623,7 +7623,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="500" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="500" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A500" t="s">
         <v>498</v>
       </c>
@@ -7631,7 +7631,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="501" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="501" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A501" t="s">
         <v>499</v>
       </c>
@@ -7639,7 +7639,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="502" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="502" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A502" t="s">
         <v>500</v>
       </c>
@@ -7647,7 +7647,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="503" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="503" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A503" t="s">
         <v>501</v>
       </c>
@@ -7655,7 +7655,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="504" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="504" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A504" t="s">
         <v>502</v>
       </c>
@@ -7663,7 +7663,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="505" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="505" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A505" t="s">
         <v>503</v>
       </c>
@@ -7671,7 +7671,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="506" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="506" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A506" t="s">
         <v>504</v>
       </c>
@@ -7679,7 +7679,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="507" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="507" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A507" t="s">
         <v>505</v>
       </c>
@@ -7687,7 +7687,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="508" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="508" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A508" t="s">
         <v>506</v>
       </c>
@@ -7695,7 +7695,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="509" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="509" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A509" t="s">
         <v>507</v>
       </c>
@@ -7703,7 +7703,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="510" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="510" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A510" t="s">
         <v>508</v>
       </c>
@@ -7711,7 +7711,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="511" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="511" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A511" t="s">
         <v>509</v>
       </c>
@@ -7719,7 +7719,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="512" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="512" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A512" t="s">
         <v>510</v>
       </c>
@@ -7727,7 +7727,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="513" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="513" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A513" t="s">
         <v>511</v>
       </c>
@@ -7735,7 +7735,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="514" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="514" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A514" t="s">
         <v>512</v>
       </c>
@@ -7743,7 +7743,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="515" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="515" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A515" t="s">
         <v>513</v>
       </c>
@@ -7751,7 +7751,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="516" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="516" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A516" t="s">
         <v>514</v>
       </c>
@@ -7759,7 +7759,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="517" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="517" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A517" t="s">
         <v>515</v>
       </c>
@@ -7767,7 +7767,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="518" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="518" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A518" t="s">
         <v>516</v>
       </c>
@@ -7775,7 +7775,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="519" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="519" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A519" t="s">
         <v>517</v>
       </c>
@@ -7783,7 +7783,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="520" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="520" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A520" t="s">
         <v>518</v>
       </c>
@@ -7791,7 +7791,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="521" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="521" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A521" t="s">
         <v>519</v>
       </c>
@@ -7799,7 +7799,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="522" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="522" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A522" t="s">
         <v>520</v>
       </c>
@@ -7807,7 +7807,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="523" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="523" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A523" t="s">
         <v>521</v>
       </c>
@@ -7815,7 +7815,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="524" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="524" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A524" t="s">
         <v>522</v>
       </c>
@@ -7823,7 +7823,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="525" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="525" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A525" t="s">
         <v>523</v>
       </c>
@@ -7831,7 +7831,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="526" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="526" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A526" t="s">
         <v>524</v>
       </c>
@@ -7848,17 +7848,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F62EDE5D-2019-4428-8BFD-4C2411454405}">
   <dimension ref="A1:B401"/>
   <sheetViews>
-    <sheetView zoomScale="63" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="63" workbookViewId="0">
       <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="255.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="255.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>901</v>
       </c>
@@ -7866,7 +7866,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>499</v>
       </c>
@@ -7874,7 +7874,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>500</v>
       </c>
@@ -7882,7 +7882,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>501</v>
       </c>
@@ -7890,7 +7890,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>502</v>
       </c>
@@ -7898,7 +7898,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>503</v>
       </c>
@@ -7906,7 +7906,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>504</v>
       </c>
@@ -7914,7 +7914,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>505</v>
       </c>
@@ -7922,7 +7922,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>506</v>
       </c>
@@ -7930,7 +7930,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>507</v>
       </c>
@@ -7938,7 +7938,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>508</v>
       </c>
@@ -7946,7 +7946,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>509</v>
       </c>
@@ -7954,7 +7954,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>510</v>
       </c>
@@ -7962,7 +7962,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>511</v>
       </c>
@@ -7970,7 +7970,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>512</v>
       </c>
@@ -7978,7 +7978,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>513</v>
       </c>
@@ -7986,7 +7986,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>514</v>
       </c>
@@ -7994,7 +7994,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>515</v>
       </c>
@@ -8002,7 +8002,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>516</v>
       </c>
@@ -8010,7 +8010,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>517</v>
       </c>
@@ -8018,7 +8018,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>518</v>
       </c>
@@ -8026,7 +8026,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>519</v>
       </c>
@@ -8034,7 +8034,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>520</v>
       </c>
@@ -8042,7 +8042,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>521</v>
       </c>
@@ -8050,7 +8050,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>522</v>
       </c>
@@ -8058,7 +8058,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>523</v>
       </c>
@@ -8066,7 +8066,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>524</v>
       </c>
@@ -8074,7 +8074,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>525</v>
       </c>
@@ -8082,7 +8082,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>526</v>
       </c>
@@ -8090,7 +8090,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>527</v>
       </c>
@@ -8098,7 +8098,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>528</v>
       </c>
@@ -8106,7 +8106,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>529</v>
       </c>
@@ -8114,7 +8114,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>530</v>
       </c>
@@ -8122,7 +8122,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>531</v>
       </c>
@@ -8130,7 +8130,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>532</v>
       </c>
@@ -8138,7 +8138,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>533</v>
       </c>
@@ -8146,7 +8146,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>534</v>
       </c>
@@ -8154,7 +8154,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>535</v>
       </c>
@@ -8162,7 +8162,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>536</v>
       </c>
@@ -8170,7 +8170,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>537</v>
       </c>
@@ -8178,7 +8178,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>538</v>
       </c>
@@ -8186,7 +8186,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>539</v>
       </c>
@@ -8194,7 +8194,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>540</v>
       </c>
@@ -8202,7 +8202,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>541</v>
       </c>
@@ -8210,7 +8210,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>542</v>
       </c>
@@ -8218,7 +8218,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>543</v>
       </c>
@@ -8226,7 +8226,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>544</v>
       </c>
@@ -8234,7 +8234,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>545</v>
       </c>
@@ -8242,7 +8242,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>546</v>
       </c>
@@ -8250,7 +8250,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>547</v>
       </c>
@@ -8258,7 +8258,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>548</v>
       </c>
@@ -8266,7 +8266,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>549</v>
       </c>
@@ -8274,7 +8274,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>550</v>
       </c>
@@ -8282,7 +8282,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>551</v>
       </c>
@@ -8290,7 +8290,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>552</v>
       </c>
@@ -8298,7 +8298,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>553</v>
       </c>
@@ -8306,7 +8306,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>554</v>
       </c>
@@ -8314,7 +8314,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>555</v>
       </c>
@@ -8322,7 +8322,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>556</v>
       </c>
@@ -8330,7 +8330,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>557</v>
       </c>
@@ -8338,7 +8338,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>558</v>
       </c>
@@ -8346,7 +8346,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>559</v>
       </c>
@@ -8354,7 +8354,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>560</v>
       </c>
@@ -8362,7 +8362,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>561</v>
       </c>
@@ -8370,7 +8370,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>562</v>
       </c>
@@ -8378,7 +8378,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>563</v>
       </c>
@@ -8386,7 +8386,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>564</v>
       </c>
@@ -8394,7 +8394,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>565</v>
       </c>
@@ -8402,7 +8402,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>566</v>
       </c>
@@ -8410,7 +8410,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>567</v>
       </c>
@@ -8418,7 +8418,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>568</v>
       </c>
@@ -8426,7 +8426,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>569</v>
       </c>
@@ -8434,7 +8434,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>570</v>
       </c>
@@ -8442,7 +8442,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>571</v>
       </c>
@@ -8450,7 +8450,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>572</v>
       </c>
@@ -8458,7 +8458,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>573</v>
       </c>
@@ -8466,7 +8466,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>574</v>
       </c>
@@ -8474,7 +8474,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>575</v>
       </c>
@@ -8482,7 +8482,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>576</v>
       </c>
@@ -8490,7 +8490,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>577</v>
       </c>
@@ -8498,7 +8498,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>578</v>
       </c>
@@ -8506,7 +8506,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>579</v>
       </c>
@@ -8514,7 +8514,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>580</v>
       </c>
@@ -8522,7 +8522,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>581</v>
       </c>
@@ -8530,7 +8530,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>582</v>
       </c>
@@ -8538,7 +8538,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>583</v>
       </c>
@@ -8546,7 +8546,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>584</v>
       </c>
@@ -8554,7 +8554,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>585</v>
       </c>
@@ -8562,7 +8562,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>586</v>
       </c>
@@ -8570,7 +8570,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>587</v>
       </c>
@@ -8578,7 +8578,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>588</v>
       </c>
@@ -8586,7 +8586,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>589</v>
       </c>
@@ -8594,7 +8594,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>590</v>
       </c>
@@ -8602,7 +8602,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>591</v>
       </c>
@@ -8610,7 +8610,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>592</v>
       </c>
@@ -8618,7 +8618,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>593</v>
       </c>
@@ -8626,7 +8626,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>594</v>
       </c>
@@ -8634,7 +8634,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>595</v>
       </c>
@@ -8642,7 +8642,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>596</v>
       </c>
@@ -8650,7 +8650,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>597</v>
       </c>
@@ -8658,7 +8658,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>598</v>
       </c>
@@ -8666,7 +8666,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
         <v>599</v>
       </c>
@@ -8674,7 +8674,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
         <v>600</v>
       </c>
@@ -8682,7 +8682,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
         <v>601</v>
       </c>
@@ -8690,7 +8690,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
         <v>602</v>
       </c>
@@ -8698,7 +8698,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
         <v>603</v>
       </c>
@@ -8706,7 +8706,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
         <v>604</v>
       </c>
@@ -8714,7 +8714,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
         <v>605</v>
       </c>
@@ -8722,7 +8722,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
         <v>606</v>
       </c>
@@ -8730,7 +8730,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
         <v>607</v>
       </c>
@@ -8738,7 +8738,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
         <v>608</v>
       </c>
@@ -8746,7 +8746,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
         <v>609</v>
       </c>
@@ -8754,7 +8754,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
         <v>610</v>
       </c>
@@ -8762,7 +8762,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
         <v>611</v>
       </c>
@@ -8770,7 +8770,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
         <v>612</v>
       </c>
@@ -8778,7 +8778,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
         <v>613</v>
       </c>
@@ -8786,7 +8786,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
         <v>614</v>
       </c>
@@ -8794,7 +8794,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
         <v>615</v>
       </c>
@@ -8802,7 +8802,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
         <v>616</v>
       </c>
@@ -8810,7 +8810,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
         <v>617</v>
       </c>
@@ -8818,7 +8818,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
         <v>618</v>
       </c>
@@ -8826,7 +8826,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
         <v>619</v>
       </c>
@@ -8834,7 +8834,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
         <v>620</v>
       </c>
@@ -8842,7 +8842,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
         <v>621</v>
       </c>
@@ -8850,7 +8850,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
         <v>622</v>
       </c>
@@ -8858,7 +8858,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
         <v>623</v>
       </c>
@@ -8866,7 +8866,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
         <v>624</v>
       </c>
@@ -8874,7 +8874,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
         <v>625</v>
       </c>
@@ -8882,7 +8882,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
         <v>626</v>
       </c>
@@ -8890,7 +8890,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
         <v>627</v>
       </c>
@@ -8898,7 +8898,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
         <v>628</v>
       </c>
@@ -8906,7 +8906,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
         <v>629</v>
       </c>
@@ -8914,7 +8914,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
         <v>630</v>
       </c>
@@ -8922,7 +8922,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
         <v>631</v>
       </c>
@@ -8930,7 +8930,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
         <v>632</v>
       </c>
@@ -8938,7 +8938,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
         <v>633</v>
       </c>
@@ -8946,7 +8946,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
         <v>634</v>
       </c>
@@ -8954,7 +8954,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
         <v>635</v>
       </c>
@@ -8962,7 +8962,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
         <v>636</v>
       </c>
@@ -8970,7 +8970,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
         <v>637</v>
       </c>
@@ -8978,7 +8978,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
         <v>638</v>
       </c>
@@ -8986,7 +8986,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
         <v>639</v>
       </c>
@@ -8994,7 +8994,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
         <v>640</v>
       </c>
@@ -9002,7 +9002,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
         <v>641</v>
       </c>
@@ -9010,7 +9010,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
         <v>642</v>
       </c>
@@ -9018,7 +9018,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
         <v>643</v>
       </c>
@@ -9026,7 +9026,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
         <v>644</v>
       </c>
@@ -9034,7 +9034,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="148" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
         <v>645</v>
       </c>
@@ -9042,7 +9042,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="149" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
         <v>646</v>
       </c>
@@ -9050,7 +9050,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="150" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
         <v>647</v>
       </c>
@@ -9058,7 +9058,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="151" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
         <v>648</v>
       </c>
@@ -9066,7 +9066,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="152" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
         <v>649</v>
       </c>
@@ -9074,7 +9074,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="153" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
         <v>650</v>
       </c>
@@ -9082,7 +9082,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="154" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
         <v>651</v>
       </c>
@@ -9090,7 +9090,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="155" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
         <v>652</v>
       </c>
@@ -9098,7 +9098,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="156" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
         <v>653</v>
       </c>
@@ -9106,7 +9106,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="157" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
         <v>654</v>
       </c>
@@ -9114,7 +9114,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="158" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
         <v>655</v>
       </c>
@@ -9122,7 +9122,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="159" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
         <v>656</v>
       </c>
@@ -9130,7 +9130,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="160" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
         <v>657</v>
       </c>
@@ -9138,7 +9138,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="161" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
         <v>658</v>
       </c>
@@ -9146,7 +9146,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="162" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
         <v>659</v>
       </c>
@@ -9154,7 +9154,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="163" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
         <v>660</v>
       </c>
@@ -9162,7 +9162,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="164" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
         <v>661</v>
       </c>
@@ -9170,7 +9170,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="165" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
         <v>662</v>
       </c>
@@ -9178,7 +9178,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="166" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
         <v>663</v>
       </c>
@@ -9186,7 +9186,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="167" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A167" s="4" t="s">
         <v>664</v>
       </c>
@@ -9194,7 +9194,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="168" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
         <v>665</v>
       </c>
@@ -9202,7 +9202,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="169" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
         <v>666</v>
       </c>
@@ -9210,7 +9210,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="170" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
         <v>667</v>
       </c>
@@ -9218,7 +9218,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="171" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
         <v>668</v>
       </c>
@@ -9226,7 +9226,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="172" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
         <v>669</v>
       </c>
@@ -9234,7 +9234,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="173" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
         <v>670</v>
       </c>
@@ -9242,7 +9242,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="174" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
         <v>671</v>
       </c>
@@ -9250,7 +9250,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="175" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A175" t="s">
         <v>672</v>
       </c>
@@ -9258,7 +9258,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="176" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A176" t="s">
         <v>673</v>
       </c>
@@ -9266,7 +9266,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="177" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A177" t="s">
         <v>674</v>
       </c>
@@ -9274,7 +9274,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="178" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A178" t="s">
         <v>675</v>
       </c>
@@ -9282,7 +9282,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="179" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A179" t="s">
         <v>676</v>
       </c>
@@ -9290,7 +9290,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="180" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A180" t="s">
         <v>677</v>
       </c>
@@ -9298,7 +9298,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="181" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A181" t="s">
         <v>678</v>
       </c>
@@ -9306,7 +9306,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="182" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A182" t="s">
         <v>679</v>
       </c>
@@ -9314,7 +9314,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="183" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A183" t="s">
         <v>680</v>
       </c>
@@ -9322,7 +9322,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="184" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A184" t="s">
         <v>681</v>
       </c>
@@ -9330,7 +9330,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="185" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A185" t="s">
         <v>682</v>
       </c>
@@ -9338,7 +9338,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="186" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A186" t="s">
         <v>683</v>
       </c>
@@ -9346,7 +9346,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="187" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A187" t="s">
         <v>684</v>
       </c>
@@ -9354,7 +9354,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="188" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A188" t="s">
         <v>685</v>
       </c>
@@ -9362,7 +9362,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="189" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A189" t="s">
         <v>686</v>
       </c>
@@ -9370,7 +9370,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="190" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A190" t="s">
         <v>687</v>
       </c>
@@ -9378,7 +9378,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="191" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A191" t="s">
         <v>688</v>
       </c>
@@ -9386,7 +9386,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="192" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A192" t="s">
         <v>689</v>
       </c>
@@ -9394,7 +9394,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="193" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A193" t="s">
         <v>690</v>
       </c>
@@ -9402,7 +9402,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="194" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A194" t="s">
         <v>691</v>
       </c>
@@ -9410,7 +9410,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="195" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A195" t="s">
         <v>692</v>
       </c>
@@ -9418,7 +9418,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="196" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A196" t="s">
         <v>693</v>
       </c>
@@ -9426,7 +9426,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="197" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A197" t="s">
         <v>694</v>
       </c>
@@ -9434,7 +9434,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="198" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A198" t="s">
         <v>695</v>
       </c>
@@ -9442,7 +9442,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="199" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A199" t="s">
         <v>696</v>
       </c>
@@ -9450,7 +9450,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="200" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A200" t="s">
         <v>697</v>
       </c>
@@ -9458,7 +9458,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="201" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A201" t="s">
         <v>698</v>
       </c>
@@ -9466,7 +9466,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="202" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A202" t="s">
         <v>699</v>
       </c>
@@ -9474,7 +9474,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="203" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A203" t="s">
         <v>700</v>
       </c>
@@ -9482,7 +9482,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="204" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A204" t="s">
         <v>701</v>
       </c>
@@ -9490,7 +9490,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="205" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A205" t="s">
         <v>702</v>
       </c>
@@ -9498,7 +9498,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="206" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A206" t="s">
         <v>703</v>
       </c>
@@ -9506,7 +9506,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="207" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A207" t="s">
         <v>704</v>
       </c>
@@ -9514,7 +9514,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="208" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A208" t="s">
         <v>705</v>
       </c>
@@ -9522,7 +9522,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="209" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A209" t="s">
         <v>706</v>
       </c>
@@ -9530,7 +9530,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="210" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A210" t="s">
         <v>707</v>
       </c>
@@ -9538,7 +9538,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="211" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A211" t="s">
         <v>708</v>
       </c>
@@ -9546,7 +9546,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="212" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A212" t="s">
         <v>709</v>
       </c>
@@ -9554,7 +9554,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="213" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A213" t="s">
         <v>710</v>
       </c>
@@ -9562,7 +9562,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="214" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A214" t="s">
         <v>711</v>
       </c>
@@ -9570,7 +9570,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="215" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A215" t="s">
         <v>712</v>
       </c>
@@ -9578,7 +9578,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="216" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A216" t="s">
         <v>713</v>
       </c>
@@ -9586,7 +9586,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="217" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A217" t="s">
         <v>714</v>
       </c>
@@ -9594,7 +9594,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="218" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A218" t="s">
         <v>715</v>
       </c>
@@ -9602,7 +9602,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="219" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A219" t="s">
         <v>716</v>
       </c>
@@ -9610,7 +9610,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="220" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A220" t="s">
         <v>717</v>
       </c>
@@ -9618,7 +9618,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="221" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A221" t="s">
         <v>718</v>
       </c>
@@ -9626,7 +9626,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="222" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A222" t="s">
         <v>719</v>
       </c>
@@ -9634,7 +9634,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="223" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A223" t="s">
         <v>720</v>
       </c>
@@ -9642,7 +9642,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="224" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A224" t="s">
         <v>721</v>
       </c>
@@ -9650,7 +9650,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="225" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A225" t="s">
         <v>722</v>
       </c>
@@ -9658,7 +9658,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="226" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A226" t="s">
         <v>723</v>
       </c>
@@ -9666,7 +9666,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="227" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A227" t="s">
         <v>724</v>
       </c>
@@ -9674,7 +9674,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="228" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A228" t="s">
         <v>725</v>
       </c>
@@ -9682,7 +9682,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="229" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A229" t="s">
         <v>726</v>
       </c>
@@ -9690,7 +9690,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="230" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A230" t="s">
         <v>727</v>
       </c>
@@ -9698,7 +9698,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="231" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A231" t="s">
         <v>728</v>
       </c>
@@ -9706,7 +9706,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="232" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A232" t="s">
         <v>729</v>
       </c>
@@ -9714,7 +9714,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="233" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A233" t="s">
         <v>730</v>
       </c>
@@ -9722,7 +9722,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="234" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A234" t="s">
         <v>731</v>
       </c>
@@ -9730,7 +9730,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="235" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A235" t="s">
         <v>732</v>
       </c>
@@ -9738,7 +9738,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="236" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A236" t="s">
         <v>733</v>
       </c>
@@ -9746,7 +9746,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="237" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A237" t="s">
         <v>734</v>
       </c>
@@ -9754,7 +9754,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="238" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A238" t="s">
         <v>735</v>
       </c>
@@ -9762,7 +9762,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="239" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A239" t="s">
         <v>736</v>
       </c>
@@ -9770,7 +9770,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="240" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A240" t="s">
         <v>737</v>
       </c>
@@ -9778,7 +9778,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="241" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A241" t="s">
         <v>738</v>
       </c>
@@ -9786,7 +9786,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="242" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A242" t="s">
         <v>739</v>
       </c>
@@ -9794,7 +9794,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="243" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A243" t="s">
         <v>740</v>
       </c>
@@ -9802,7 +9802,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="244" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A244" t="s">
         <v>741</v>
       </c>
@@ -9810,7 +9810,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="245" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A245" t="s">
         <v>742</v>
       </c>
@@ -9818,7 +9818,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="246" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A246" t="s">
         <v>743</v>
       </c>
@@ -9826,7 +9826,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="247" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A247" t="s">
         <v>744</v>
       </c>
@@ -9834,7 +9834,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="248" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A248" t="s">
         <v>745</v>
       </c>
@@ -9842,7 +9842,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="249" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A249" t="s">
         <v>746</v>
       </c>
@@ -9850,7 +9850,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="250" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A250" t="s">
         <v>747</v>
       </c>
@@ -9858,7 +9858,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="251" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A251" t="s">
         <v>748</v>
       </c>
@@ -9866,7 +9866,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="252" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A252" t="s">
         <v>749</v>
       </c>
@@ -9874,7 +9874,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="253" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A253" t="s">
         <v>750</v>
       </c>
@@ -9882,7 +9882,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="254" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A254" t="s">
         <v>751</v>
       </c>
@@ -9890,7 +9890,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="255" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A255" t="s">
         <v>752</v>
       </c>
@@ -9898,7 +9898,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="256" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A256" t="s">
         <v>753</v>
       </c>
@@ -9906,7 +9906,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="257" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A257" t="s">
         <v>754</v>
       </c>
@@ -9914,7 +9914,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="258" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A258" t="s">
         <v>755</v>
       </c>
@@ -9922,7 +9922,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="259" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A259" t="s">
         <v>756</v>
       </c>
@@ -9930,7 +9930,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="260" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A260" t="s">
         <v>757</v>
       </c>
@@ -9938,7 +9938,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="261" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A261" t="s">
         <v>758</v>
       </c>
@@ -9946,7 +9946,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="262" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A262" t="s">
         <v>759</v>
       </c>
@@ -9954,7 +9954,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="263" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A263" t="s">
         <v>760</v>
       </c>
@@ -9962,7 +9962,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="264" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A264" t="s">
         <v>761</v>
       </c>
@@ -9970,7 +9970,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="265" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A265" t="s">
         <v>762</v>
       </c>
@@ -9978,7 +9978,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="266" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A266" t="s">
         <v>763</v>
       </c>
@@ -9986,7 +9986,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="267" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A267" t="s">
         <v>764</v>
       </c>
@@ -9994,7 +9994,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="268" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A268" t="s">
         <v>765</v>
       </c>
@@ -10002,7 +10002,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="269" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A269" t="s">
         <v>766</v>
       </c>
@@ -10010,7 +10010,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="270" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A270" t="s">
         <v>767</v>
       </c>
@@ -10018,7 +10018,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="271" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A271" t="s">
         <v>768</v>
       </c>
@@ -10026,7 +10026,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="272" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A272" t="s">
         <v>769</v>
       </c>
@@ -10034,7 +10034,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="273" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A273" t="s">
         <v>770</v>
       </c>
@@ -10042,7 +10042,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="274" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A274" t="s">
         <v>771</v>
       </c>
@@ -10050,7 +10050,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="275" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A275" t="s">
         <v>772</v>
       </c>
@@ -10058,7 +10058,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="276" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A276" t="s">
         <v>773</v>
       </c>
@@ -10066,7 +10066,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="277" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A277" t="s">
         <v>774</v>
       </c>
@@ -10074,7 +10074,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="278" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A278" t="s">
         <v>775</v>
       </c>
@@ -10082,7 +10082,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="279" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A279" t="s">
         <v>776</v>
       </c>
@@ -10090,7 +10090,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="280" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A280" t="s">
         <v>777</v>
       </c>
@@ -10098,7 +10098,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="281" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A281" t="s">
         <v>778</v>
       </c>
@@ -10106,7 +10106,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="282" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A282" t="s">
         <v>779</v>
       </c>
@@ -10114,7 +10114,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="283" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A283" t="s">
         <v>780</v>
       </c>
@@ -10122,7 +10122,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="284" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A284" t="s">
         <v>781</v>
       </c>
@@ -10130,7 +10130,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="285" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A285" t="s">
         <v>782</v>
       </c>
@@ -10138,7 +10138,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="286" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A286" t="s">
         <v>783</v>
       </c>
@@ -10146,7 +10146,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="287" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A287" t="s">
         <v>784</v>
       </c>
@@ -10154,7 +10154,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="288" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A288" t="s">
         <v>785</v>
       </c>
@@ -10162,7 +10162,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="289" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A289" t="s">
         <v>786</v>
       </c>
@@ -10170,7 +10170,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="290" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A290" t="s">
         <v>787</v>
       </c>
@@ -10178,7 +10178,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="291" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A291" t="s">
         <v>788</v>
       </c>
@@ -10186,7 +10186,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="292" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A292" t="s">
         <v>789</v>
       </c>
@@ -10194,7 +10194,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="293" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A293" t="s">
         <v>790</v>
       </c>
@@ -10202,7 +10202,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="294" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A294" t="s">
         <v>791</v>
       </c>
@@ -10210,7 +10210,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="295" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A295" t="s">
         <v>792</v>
       </c>
@@ -10218,7 +10218,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="296" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A296" t="s">
         <v>793</v>
       </c>
@@ -10226,7 +10226,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="297" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A297" t="s">
         <v>794</v>
       </c>
@@ -10234,7 +10234,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="298" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A298" t="s">
         <v>795</v>
       </c>
@@ -10242,7 +10242,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="299" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A299" t="s">
         <v>796</v>
       </c>
@@ -10250,7 +10250,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="300" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A300" t="s">
         <v>797</v>
       </c>
@@ -10258,7 +10258,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="301" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A301" t="s">
         <v>798</v>
       </c>
@@ -10266,7 +10266,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="302" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A302" t="s">
         <v>799</v>
       </c>
@@ -10274,7 +10274,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="303" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A303" t="s">
         <v>800</v>
       </c>
@@ -10282,7 +10282,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="304" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A304" t="s">
         <v>801</v>
       </c>
@@ -10290,7 +10290,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="305" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A305" t="s">
         <v>802</v>
       </c>
@@ -10298,7 +10298,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="306" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A306" t="s">
         <v>803</v>
       </c>
@@ -10306,7 +10306,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="307" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A307" t="s">
         <v>804</v>
       </c>
@@ -10314,7 +10314,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="308" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A308" t="s">
         <v>805</v>
       </c>
@@ -10322,7 +10322,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="309" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A309" t="s">
         <v>806</v>
       </c>
@@ -10330,7 +10330,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="310" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A310" t="s">
         <v>807</v>
       </c>
@@ -10338,7 +10338,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="311" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A311" t="s">
         <v>808</v>
       </c>
@@ -10346,7 +10346,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="312" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A312" t="s">
         <v>809</v>
       </c>
@@ -10354,7 +10354,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="313" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A313" t="s">
         <v>810</v>
       </c>
@@ -10362,7 +10362,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="314" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A314" t="s">
         <v>811</v>
       </c>
@@ -10370,7 +10370,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="315" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A315" t="s">
         <v>812</v>
       </c>
@@ -10378,7 +10378,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="316" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A316" t="s">
         <v>813</v>
       </c>
@@ -10386,7 +10386,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="317" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A317" t="s">
         <v>814</v>
       </c>
@@ -10394,7 +10394,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="318" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A318" t="s">
         <v>815</v>
       </c>
@@ -10402,7 +10402,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="319" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A319" t="s">
         <v>816</v>
       </c>
@@ -10410,7 +10410,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="320" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A320" t="s">
         <v>817</v>
       </c>
@@ -10418,7 +10418,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="321" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A321" t="s">
         <v>818</v>
       </c>
@@ -10426,7 +10426,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="322" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A322" t="s">
         <v>819</v>
       </c>
@@ -10434,7 +10434,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="323" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A323" t="s">
         <v>820</v>
       </c>
@@ -10442,7 +10442,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="324" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A324" t="s">
         <v>821</v>
       </c>
@@ -10450,7 +10450,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="325" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A325" t="s">
         <v>822</v>
       </c>
@@ -10458,7 +10458,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="326" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A326" t="s">
         <v>823</v>
       </c>
@@ -10466,7 +10466,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="327" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A327" t="s">
         <v>824</v>
       </c>
@@ -10474,7 +10474,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="328" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A328" t="s">
         <v>825</v>
       </c>
@@ -10482,7 +10482,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="329" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A329" t="s">
         <v>826</v>
       </c>
@@ -10490,7 +10490,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="330" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A330" t="s">
         <v>827</v>
       </c>
@@ -10498,7 +10498,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="331" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A331" t="s">
         <v>828</v>
       </c>
@@ -10506,7 +10506,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="332" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A332" t="s">
         <v>829</v>
       </c>
@@ -10514,7 +10514,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="333" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A333" t="s">
         <v>830</v>
       </c>
@@ -10522,7 +10522,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="334" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A334" t="s">
         <v>831</v>
       </c>
@@ -10530,7 +10530,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="335" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A335" t="s">
         <v>832</v>
       </c>
@@ -10538,7 +10538,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="336" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A336" t="s">
         <v>833</v>
       </c>
@@ -10546,7 +10546,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="337" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A337" t="s">
         <v>834</v>
       </c>
@@ -10554,7 +10554,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="338" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A338" t="s">
         <v>835</v>
       </c>
@@ -10562,7 +10562,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="339" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A339" t="s">
         <v>836</v>
       </c>
@@ -10570,7 +10570,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="340" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A340" t="s">
         <v>837</v>
       </c>
@@ -10578,7 +10578,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="341" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A341" t="s">
         <v>838</v>
       </c>
@@ -10586,7 +10586,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="342" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A342" t="s">
         <v>839</v>
       </c>
@@ -10594,7 +10594,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="343" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A343" t="s">
         <v>840</v>
       </c>
@@ -10602,7 +10602,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="344" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A344" t="s">
         <v>841</v>
       </c>
@@ -10610,7 +10610,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="345" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A345" t="s">
         <v>842</v>
       </c>
@@ -10618,7 +10618,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="346" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A346" t="s">
         <v>843</v>
       </c>
@@ -10626,7 +10626,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="347" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A347" t="s">
         <v>844</v>
       </c>
@@ -10634,7 +10634,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="348" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A348" t="s">
         <v>845</v>
       </c>
@@ -10642,7 +10642,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="349" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A349" t="s">
         <v>846</v>
       </c>
@@ -10650,7 +10650,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="350" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A350" t="s">
         <v>847</v>
       </c>
@@ -10658,7 +10658,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="351" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A351" t="s">
         <v>848</v>
       </c>
@@ -10666,7 +10666,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="352" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A352" t="s">
         <v>849</v>
       </c>
@@ -10674,7 +10674,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="353" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A353" t="s">
         <v>850</v>
       </c>
@@ -10682,7 +10682,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="354" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A354" t="s">
         <v>851</v>
       </c>
@@ -10690,7 +10690,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="355" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A355" t="s">
         <v>852</v>
       </c>
@@ -10698,7 +10698,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="356" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A356" t="s">
         <v>853</v>
       </c>
@@ -10706,7 +10706,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="357" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A357" t="s">
         <v>854</v>
       </c>
@@ -10714,7 +10714,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="358" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A358" t="s">
         <v>855</v>
       </c>
@@ -10722,7 +10722,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="359" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A359" t="s">
         <v>856</v>
       </c>
@@ -10730,7 +10730,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="360" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A360" t="s">
         <v>857</v>
       </c>
@@ -10738,7 +10738,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="361" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A361" t="s">
         <v>858</v>
       </c>
@@ -10746,7 +10746,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="362" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A362" t="s">
         <v>859</v>
       </c>
@@ -10754,7 +10754,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="363" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A363" t="s">
         <v>860</v>
       </c>
@@ -10762,7 +10762,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="364" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A364" t="s">
         <v>861</v>
       </c>
@@ -10770,7 +10770,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="365" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A365" t="s">
         <v>862</v>
       </c>
@@ -10778,7 +10778,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="366" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A366" t="s">
         <v>863</v>
       </c>
@@ -10786,7 +10786,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="367" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A367" t="s">
         <v>864</v>
       </c>
@@ -10794,7 +10794,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="368" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A368" t="s">
         <v>865</v>
       </c>
@@ -10802,7 +10802,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="369" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A369" t="s">
         <v>866</v>
       </c>
@@ -10810,7 +10810,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="370" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A370" t="s">
         <v>867</v>
       </c>
@@ -10818,7 +10818,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="371" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A371" t="s">
         <v>868</v>
       </c>
@@ -10826,7 +10826,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="372" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A372" t="s">
         <v>869</v>
       </c>
@@ -10834,7 +10834,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="373" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A373" t="s">
         <v>870</v>
       </c>
@@ -10842,7 +10842,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="374" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A374" t="s">
         <v>871</v>
       </c>
@@ -10850,7 +10850,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="375" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A375" t="s">
         <v>872</v>
       </c>
@@ -10858,7 +10858,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="376" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A376" t="s">
         <v>873</v>
       </c>
@@ -10866,7 +10866,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="377" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A377" t="s">
         <v>874</v>
       </c>
@@ -10874,7 +10874,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="378" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A378" t="s">
         <v>875</v>
       </c>
@@ -10882,7 +10882,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="379" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A379" t="s">
         <v>876</v>
       </c>
@@ -10890,7 +10890,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="380" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A380" t="s">
         <v>877</v>
       </c>
@@ -10898,7 +10898,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="381" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A381" t="s">
         <v>878</v>
       </c>
@@ -10906,7 +10906,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="382" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A382" t="s">
         <v>879</v>
       </c>
@@ -10914,7 +10914,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="383" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A383" t="s">
         <v>880</v>
       </c>
@@ -10922,7 +10922,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="384" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A384" t="s">
         <v>881</v>
       </c>
@@ -10930,7 +10930,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="385" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A385" t="s">
         <v>882</v>
       </c>
@@ -10938,7 +10938,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="386" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A386" s="3" t="s">
         <v>883</v>
       </c>
@@ -10946,7 +10946,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="387" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A387" t="s">
         <v>884</v>
       </c>
@@ -10954,7 +10954,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="388" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A388" t="s">
         <v>885</v>
       </c>
@@ -10962,7 +10962,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="389" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A389" t="s">
         <v>886</v>
       </c>
@@ -10970,7 +10970,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="390" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A390" t="s">
         <v>887</v>
       </c>
@@ -10978,7 +10978,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="391" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A391" t="s">
         <v>888</v>
       </c>
@@ -10986,7 +10986,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="392" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A392" t="s">
         <v>889</v>
       </c>
@@ -10994,7 +10994,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="393" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A393" t="s">
         <v>890</v>
       </c>
@@ -11002,7 +11002,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="394" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A394" t="s">
         <v>891</v>
       </c>
@@ -11010,7 +11010,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="395" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A395" t="s">
         <v>892</v>
       </c>
@@ -11018,7 +11018,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="396" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A396" t="s">
         <v>893</v>
       </c>
@@ -11026,7 +11026,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="397" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A397" t="s">
         <v>894</v>
       </c>
@@ -11034,7 +11034,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="398" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A398" t="s">
         <v>895</v>
       </c>
@@ -11042,7 +11042,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="399" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A399" t="s">
         <v>896</v>
       </c>
@@ -11050,7 +11050,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="400" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A400" t="s">
         <v>897</v>
       </c>
@@ -11058,7 +11058,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="401" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A401" t="s">
         <v>898</v>
       </c>

--- a/Nintendo.xlsx
+++ b/Nintendo.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gabri\Documents\Insper\Segundo Semestre\Ciencia dos Dados\CieDados-P2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{518376F9-838C-41FD-8906-FB105A993DEC}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CA3B807-D4FC-47FF-8363-8DCE9CB716B0}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3204" yWindow="3204" windowWidth="17280" windowHeight="8964" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Treinamento" sheetId="1" r:id="rId1"/>
@@ -3621,8 +3621,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B526"/>
   <sheetViews>
-    <sheetView zoomScale="59" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView topLeftCell="A491" zoomScale="59" workbookViewId="0">
+      <selection activeCell="B501" sqref="B501:B526"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7652,7 +7652,7 @@
         <v>501</v>
       </c>
       <c r="B503">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="504" spans="1:2" x14ac:dyDescent="0.3">
@@ -7848,8 +7848,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F62EDE5D-2019-4428-8BFD-4C2411454405}">
   <dimension ref="A1:B401"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="63" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+    <sheetView tabSelected="1" zoomScale="63" workbookViewId="0">
+      <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7871,7 +7871,7 @@
         <v>499</v>
       </c>
       <c r="B2">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
@@ -7895,7 +7895,7 @@
         <v>502</v>
       </c>
       <c r="B5">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
@@ -7943,7 +7943,7 @@
         <v>508</v>
       </c>
       <c r="B11">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
@@ -7959,7 +7959,7 @@
         <v>510</v>
       </c>
       <c r="B13">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
@@ -7967,7 +7967,7 @@
         <v>511</v>
       </c>
       <c r="B14">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
@@ -7983,7 +7983,7 @@
         <v>513</v>
       </c>
       <c r="B16">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
@@ -8007,7 +8007,7 @@
         <v>516</v>
       </c>
       <c r="B19">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
@@ -8015,7 +8015,7 @@
         <v>517</v>
       </c>
       <c r="B20">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
@@ -8023,7 +8023,7 @@
         <v>518</v>
       </c>
       <c r="B21">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.3">

--- a/Nintendo.xlsx
+++ b/Nintendo.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gabri\Documents\Insper\Segundo Semestre\Ciencia dos Dados\CieDados-P2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CA3B807-D4FC-47FF-8363-8DCE9CB716B0}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9499DD93-14BC-455C-BFFB-5AF0E7F16D4C}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -7849,7 +7849,7 @@
   <dimension ref="A1:B401"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="63" workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/Nintendo.xlsx
+++ b/Nintendo.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gabri\Documents\Insper\Segundo Semestre\Ciencia dos Dados\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gabri\Documents\Insper\Segundo Semestre\Ciencia dos Dados\CieDados-P2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{340917E5-B18D-4BC0-9166-9181B9EDD4A6}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52BB8146-35C7-473E-A607-DFC19AC02B75}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -7848,8 +7848,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F62EDE5D-2019-4428-8BFD-4C2411454405}">
   <dimension ref="A1:B401"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="63" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView tabSelected="1" topLeftCell="A35" zoomScale="63" workbookViewId="0">
+      <selection activeCell="G54" sqref="G54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
